--- a/data/pca/factorExposure/factorExposure_2011-06-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01713144070983078</v>
+        <v>-0.01489415314456225</v>
       </c>
       <c r="C2">
-        <v>0.005302693756120364</v>
+        <v>-0.0005014278954073566</v>
       </c>
       <c r="D2">
-        <v>-0.0566809017711398</v>
+        <v>0.007564952666345604</v>
       </c>
       <c r="E2">
-        <v>0.02722604068023948</v>
+        <v>-0.04358348380851785</v>
       </c>
       <c r="F2">
-        <v>0.03677133644791587</v>
+        <v>-0.0007672591483127021</v>
       </c>
       <c r="G2">
-        <v>0.007251329254479959</v>
+        <v>-0.02371354176688196</v>
       </c>
       <c r="H2">
-        <v>-0.01341226253688895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.03066663433367248</v>
+      </c>
+      <c r="I2">
+        <v>0.01142672838825189</v>
+      </c>
+      <c r="J2">
+        <v>-0.02443270471647664</v>
+      </c>
+      <c r="K2">
+        <v>0.03966806359357199</v>
+      </c>
+      <c r="L2">
+        <v>-0.03635046039786032</v>
+      </c>
+      <c r="M2">
+        <v>-0.003116568230501155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.07895875491616844</v>
+        <v>-0.1098475423641871</v>
       </c>
       <c r="C4">
-        <v>-0.05489397219046668</v>
+        <v>-0.07810801189143368</v>
       </c>
       <c r="D4">
-        <v>-0.03105597629710154</v>
+        <v>0.01955963138564637</v>
       </c>
       <c r="E4">
-        <v>0.04552959196510366</v>
+        <v>-0.05219676851045192</v>
       </c>
       <c r="F4">
-        <v>0.01932150033464566</v>
+        <v>-0.1336102930097607</v>
       </c>
       <c r="G4">
-        <v>0.01167762583021923</v>
+        <v>0.02550571286299212</v>
       </c>
       <c r="H4">
-        <v>-0.008635116579448685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.03520758035231254</v>
+      </c>
+      <c r="I4">
+        <v>-0.03106154598508348</v>
+      </c>
+      <c r="J4">
+        <v>-0.007482524500636858</v>
+      </c>
+      <c r="K4">
+        <v>-0.09919187994178326</v>
+      </c>
+      <c r="L4">
+        <v>0.002463404749677107</v>
+      </c>
+      <c r="M4">
+        <v>-0.04014205082172701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1272108909406027</v>
+        <v>-0.1327617129950524</v>
       </c>
       <c r="C6">
-        <v>-0.03553281960355678</v>
+        <v>-0.0488959000350486</v>
       </c>
       <c r="D6">
-        <v>-0.03660902448891996</v>
+        <v>-0.002330187230073582</v>
       </c>
       <c r="E6">
-        <v>0.05861878389616182</v>
+        <v>-0.003513294160179246</v>
       </c>
       <c r="F6">
-        <v>-0.1121757927618809</v>
+        <v>0.005478313351186371</v>
       </c>
       <c r="G6">
-        <v>0.0004983389169634875</v>
+        <v>0.1134479474579686</v>
       </c>
       <c r="H6">
-        <v>0.2534746582783513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.01383122077620568</v>
+      </c>
+      <c r="I6">
+        <v>-0.41528706023084</v>
+      </c>
+      <c r="J6">
+        <v>0.1898218730065345</v>
+      </c>
+      <c r="K6">
+        <v>-0.09999160727428605</v>
+      </c>
+      <c r="L6">
+        <v>-0.07640065124645223</v>
+      </c>
+      <c r="M6">
+        <v>-0.004102464134837048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07486348323744434</v>
+        <v>-0.07094955053033195</v>
       </c>
       <c r="C7">
-        <v>-0.05632342065722057</v>
+        <v>-0.06732042279313404</v>
       </c>
       <c r="D7">
-        <v>-0.05594564711437119</v>
+        <v>0.0135896141522647</v>
       </c>
       <c r="E7">
-        <v>0.04643096697333194</v>
+        <v>-0.05691934536649823</v>
       </c>
       <c r="F7">
-        <v>-0.03709072384074707</v>
+        <v>-0.02156059184547502</v>
       </c>
       <c r="G7">
-        <v>0.002796531964331508</v>
+        <v>0.01665528212913816</v>
       </c>
       <c r="H7">
-        <v>-0.02160469123619138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.00398515918333298</v>
+      </c>
+      <c r="I7">
+        <v>0.05986024227689932</v>
+      </c>
+      <c r="J7">
+        <v>-0.05805268440032032</v>
+      </c>
+      <c r="K7">
+        <v>-0.09439923194133634</v>
+      </c>
+      <c r="L7">
+        <v>0.01239715003541237</v>
+      </c>
+      <c r="M7">
+        <v>0.03364987684031281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.03073191908373849</v>
+        <v>-0.04311531206484713</v>
       </c>
       <c r="C8">
-        <v>-0.01007183499458088</v>
+        <v>-0.01392545254008368</v>
       </c>
       <c r="D8">
-        <v>-0.04769830986669851</v>
+        <v>0.01013378858723676</v>
       </c>
       <c r="E8">
-        <v>0.04989573790066799</v>
+        <v>-0.04324524344364971</v>
       </c>
       <c r="F8">
-        <v>0.01495627275259429</v>
+        <v>-0.106746036881494</v>
       </c>
       <c r="G8">
-        <v>0.04970414516091821</v>
+        <v>-0.002578790645969697</v>
       </c>
       <c r="H8">
-        <v>-0.02040939814489828</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.00271474061395931</v>
+      </c>
+      <c r="I8">
+        <v>-0.03670651582036132</v>
+      </c>
+      <c r="J8">
+        <v>-0.008003741351567317</v>
+      </c>
+      <c r="K8">
+        <v>-0.0803632075754898</v>
+      </c>
+      <c r="L8">
+        <v>-0.04075921400528285</v>
+      </c>
+      <c r="M8">
+        <v>-0.05116385454127851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07734054659082737</v>
+        <v>-0.08543598652383945</v>
       </c>
       <c r="C9">
-        <v>-0.06210002534339577</v>
+        <v>-0.07208407995984217</v>
       </c>
       <c r="D9">
-        <v>-0.03558275906830369</v>
+        <v>0.0008564419233489914</v>
       </c>
       <c r="E9">
-        <v>0.04389138378372218</v>
+        <v>-0.03438093372833691</v>
       </c>
       <c r="F9">
-        <v>0.03018149567002299</v>
+        <v>-0.1274123122797298</v>
       </c>
       <c r="G9">
-        <v>0.0138984017628973</v>
+        <v>0.03288200838413629</v>
       </c>
       <c r="H9">
-        <v>-0.002008661658973676</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.01643171410239573</v>
+      </c>
+      <c r="I9">
+        <v>-0.00452686977371592</v>
+      </c>
+      <c r="J9">
+        <v>-0.01638157796276057</v>
+      </c>
+      <c r="K9">
+        <v>-0.06654179542719425</v>
+      </c>
+      <c r="L9">
+        <v>-0.01399047928278009</v>
+      </c>
+      <c r="M9">
+        <v>0.01484291310857316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.06303170282394668</v>
+        <v>-0.112938398579659</v>
       </c>
       <c r="C10">
-        <v>0.1404635565465774</v>
+        <v>0.1656235255452334</v>
       </c>
       <c r="D10">
-        <v>-0.07029319678284808</v>
+        <v>0.006326125629053098</v>
       </c>
       <c r="E10">
-        <v>0.04422315844582948</v>
+        <v>-0.05336460150713203</v>
       </c>
       <c r="F10">
-        <v>-0.03918859900171188</v>
+        <v>0.01144441379114943</v>
       </c>
       <c r="G10">
-        <v>0.003213863388249552</v>
+        <v>0.01746488600265524</v>
       </c>
       <c r="H10">
-        <v>0.01272750079689754</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.02444873815390523</v>
+      </c>
+      <c r="I10">
+        <v>0.02671342107820288</v>
+      </c>
+      <c r="J10">
+        <v>0.01786076400703006</v>
+      </c>
+      <c r="K10">
+        <v>0.01730614616442233</v>
+      </c>
+      <c r="L10">
+        <v>0.03646931693980129</v>
+      </c>
+      <c r="M10">
+        <v>0.1183605456012048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07254749460241751</v>
+        <v>-0.06897794012668675</v>
       </c>
       <c r="C11">
-        <v>-0.08615221894895463</v>
+        <v>-0.07616394210856389</v>
       </c>
       <c r="D11">
-        <v>-0.02958102505853411</v>
+        <v>-0.02722113331018078</v>
       </c>
       <c r="E11">
-        <v>0.00728022449032897</v>
+        <v>-0.01208020369269473</v>
       </c>
       <c r="F11">
-        <v>0.05293400060599325</v>
+        <v>-0.117995173217557</v>
       </c>
       <c r="G11">
-        <v>0.06834951393179521</v>
+        <v>0.02480661792758434</v>
       </c>
       <c r="H11">
-        <v>-0.04965686504243118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.03910905651067127</v>
+      </c>
+      <c r="I11">
+        <v>0.07213173783203833</v>
+      </c>
+      <c r="J11">
+        <v>-0.06235855809006445</v>
+      </c>
+      <c r="K11">
+        <v>0.01592974072913942</v>
+      </c>
+      <c r="L11">
+        <v>-0.03528943865641795</v>
+      </c>
+      <c r="M11">
+        <v>0.1233598236320576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.0722997198771075</v>
+        <v>-0.06975852935052489</v>
       </c>
       <c r="C12">
-        <v>-0.06174130552466572</v>
+        <v>-0.06850711063773048</v>
       </c>
       <c r="D12">
-        <v>-0.02066461201037838</v>
+        <v>-0.02701960128811518</v>
       </c>
       <c r="E12">
-        <v>0.03503541762894326</v>
+        <v>-0.003396158023167427</v>
       </c>
       <c r="F12">
-        <v>0.003106132839009325</v>
+        <v>-0.1211606384233262</v>
       </c>
       <c r="G12">
-        <v>0.05008004669677536</v>
+        <v>0.02250623100184716</v>
       </c>
       <c r="H12">
-        <v>-0.04474088126258382</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.03858160630495121</v>
+      </c>
+      <c r="I12">
+        <v>0.04430208261611513</v>
+      </c>
+      <c r="J12">
+        <v>-0.08765144100356731</v>
+      </c>
+      <c r="K12">
+        <v>-0.01160588649342255</v>
+      </c>
+      <c r="L12">
+        <v>-0.04117072404686963</v>
+      </c>
+      <c r="M12">
+        <v>0.1442730595132311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05794463921748212</v>
+        <v>-0.04489102363791676</v>
       </c>
       <c r="C13">
-        <v>-0.01302669908360205</v>
+        <v>-0.0317497689472748</v>
       </c>
       <c r="D13">
-        <v>0.001380453563489173</v>
+        <v>0.02255135693121324</v>
       </c>
       <c r="E13">
-        <v>0.02127529730827691</v>
+        <v>-0.01183048946411074</v>
       </c>
       <c r="F13">
-        <v>0.05198253332384663</v>
+        <v>-0.03993100158049632</v>
       </c>
       <c r="G13">
-        <v>-0.0152158547049487</v>
+        <v>-0.004496460182196957</v>
       </c>
       <c r="H13">
-        <v>0.009369292115139316</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.01374394898257778</v>
+      </c>
+      <c r="I13">
+        <v>0.001353429563217289</v>
+      </c>
+      <c r="J13">
+        <v>-0.00422510741722225</v>
+      </c>
+      <c r="K13">
+        <v>-0.03648673714724648</v>
+      </c>
+      <c r="L13">
+        <v>0.02546180228759397</v>
+      </c>
+      <c r="M13">
+        <v>-0.02114371010395769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.05349553897051398</v>
+        <v>-0.04079115815452847</v>
       </c>
       <c r="C14">
-        <v>-0.0232269527559147</v>
+        <v>-0.03057684403064983</v>
       </c>
       <c r="D14">
-        <v>-0.02445695591153416</v>
+        <v>-0.01308246166738204</v>
       </c>
       <c r="E14">
-        <v>0.02488797651558572</v>
+        <v>-0.0181238372681544</v>
       </c>
       <c r="F14">
-        <v>-0.01652462457181094</v>
+        <v>-0.06390800308687411</v>
       </c>
       <c r="G14">
-        <v>0.0199709129350752</v>
+        <v>-0.006782948025567503</v>
       </c>
       <c r="H14">
-        <v>0.06868651373761989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.0399848381496685</v>
+      </c>
+      <c r="I14">
+        <v>-0.001980430906281945</v>
+      </c>
+      <c r="J14">
+        <v>0.02851384731633212</v>
+      </c>
+      <c r="K14">
+        <v>-0.09397719267086017</v>
+      </c>
+      <c r="L14">
+        <v>0.01036632924718862</v>
+      </c>
+      <c r="M14">
+        <v>0.001661825136386224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03787343889532703</v>
+        <v>-0.025445630556351</v>
       </c>
       <c r="C15">
-        <v>0.003944472390086593</v>
+        <v>-0.009377062984368157</v>
       </c>
       <c r="D15">
-        <v>0.004815824507978599</v>
+        <v>0.05583334890016003</v>
       </c>
       <c r="E15">
-        <v>0.0227131184459761</v>
+        <v>-0.003320636520098749</v>
       </c>
       <c r="F15">
-        <v>0.004614527515916906</v>
+        <v>0.001910456009639364</v>
       </c>
       <c r="G15">
-        <v>-0.0112892365240202</v>
+        <v>0.03871600918657335</v>
       </c>
       <c r="H15">
-        <v>0.01029388020935209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.03709434232521355</v>
+      </c>
+      <c r="I15">
+        <v>-0.005203688894658023</v>
+      </c>
+      <c r="J15">
+        <v>0.02230856434965483</v>
+      </c>
+      <c r="K15">
+        <v>-0.06795865101986796</v>
+      </c>
+      <c r="L15">
+        <v>0.02680129569422189</v>
+      </c>
+      <c r="M15">
+        <v>0.0112674776610423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06339846650127658</v>
+        <v>-0.07262330505532583</v>
       </c>
       <c r="C16">
-        <v>-0.08401754456237959</v>
+        <v>-0.08172806774218726</v>
       </c>
       <c r="D16">
-        <v>-0.02694912782582284</v>
+        <v>-0.01686998374287861</v>
       </c>
       <c r="E16">
-        <v>0.03455722511818728</v>
+        <v>-0.01262713009097757</v>
       </c>
       <c r="F16">
-        <v>0.04595774708589297</v>
+        <v>-0.116027134946556</v>
       </c>
       <c r="G16">
-        <v>0.04268104267820786</v>
+        <v>0.009500622422895915</v>
       </c>
       <c r="H16">
-        <v>-0.0420921345067222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.03345358770524875</v>
+      </c>
+      <c r="I16">
+        <v>0.05779217491738235</v>
+      </c>
+      <c r="J16">
+        <v>-0.07460694009983414</v>
+      </c>
+      <c r="K16">
+        <v>-0.01494264692189951</v>
+      </c>
+      <c r="L16">
+        <v>-0.04657259014196139</v>
+      </c>
+      <c r="M16">
+        <v>0.125044096601744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04528377385632454</v>
+        <v>-0.04650480156191045</v>
       </c>
       <c r="C20">
-        <v>-0.04603375696968703</v>
+        <v>-0.03293879977029895</v>
       </c>
       <c r="D20">
-        <v>-0.01223796230045195</v>
+        <v>0.02610097951221411</v>
       </c>
       <c r="E20">
-        <v>0.02137836458799973</v>
+        <v>-0.0187171523819535</v>
       </c>
       <c r="F20">
-        <v>0.025150826706571</v>
+        <v>-0.0675105938389983</v>
       </c>
       <c r="G20">
-        <v>0.0206130311896868</v>
+        <v>-0.006351173432910419</v>
       </c>
       <c r="H20">
-        <v>-0.005433775668738284</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.0130387803151457</v>
+      </c>
+      <c r="I20">
+        <v>-0.0006140061815760919</v>
+      </c>
+      <c r="J20">
+        <v>-0.01396508777622764</v>
+      </c>
+      <c r="K20">
+        <v>-0.08692166740742158</v>
+      </c>
+      <c r="L20">
+        <v>-0.01317884074536075</v>
+      </c>
+      <c r="M20">
+        <v>0.01772737689700556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02218994287956451</v>
+        <v>-0.02269088005858483</v>
       </c>
       <c r="C21">
-        <v>-0.03583781767242002</v>
+        <v>-0.0244668532179854</v>
       </c>
       <c r="D21">
-        <v>-0.001230270515738003</v>
+        <v>0.009820709314528296</v>
       </c>
       <c r="E21">
-        <v>0.0589359150415191</v>
+        <v>-0.02550435864929449</v>
       </c>
       <c r="F21">
-        <v>-0.07001125248868338</v>
+        <v>-0.04977795032848809</v>
       </c>
       <c r="G21">
-        <v>0.004845596833700122</v>
+        <v>0.1112121455650921</v>
       </c>
       <c r="H21">
-        <v>0.005212410306019859</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.06408091501252637</v>
+      </c>
+      <c r="I21">
+        <v>0.02588807921766902</v>
+      </c>
+      <c r="J21">
+        <v>0.008403147523342439</v>
+      </c>
+      <c r="K21">
+        <v>-0.07418317601900513</v>
+      </c>
+      <c r="L21">
+        <v>0.0568081997266528</v>
+      </c>
+      <c r="M21">
+        <v>0.04982596724895617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01262538194630195</v>
+        <v>-0.04120915272433586</v>
       </c>
       <c r="C22">
-        <v>-0.03547691305256036</v>
+        <v>-0.01877950033735719</v>
       </c>
       <c r="D22">
-        <v>0.1046241227826619</v>
+        <v>0.6563876714298602</v>
       </c>
       <c r="E22">
-        <v>0.5107739778197972</v>
+        <v>-0.03540643090189563</v>
       </c>
       <c r="F22">
-        <v>0.09689906876567837</v>
+        <v>0.05095458170566565</v>
       </c>
       <c r="G22">
-        <v>-0.290294881171026</v>
+        <v>-0.1092502417758606</v>
       </c>
       <c r="H22">
-        <v>-0.1757230260633117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.1361034000779806</v>
+      </c>
+      <c r="I22">
+        <v>0.01652941676563919</v>
+      </c>
+      <c r="J22">
+        <v>0.02085927774090368</v>
+      </c>
+      <c r="K22">
+        <v>0.02765439665713003</v>
+      </c>
+      <c r="L22">
+        <v>0.001851278995778947</v>
+      </c>
+      <c r="M22">
+        <v>0.002479130805524414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.01130635211626816</v>
+        <v>-0.04143414373625598</v>
       </c>
       <c r="C23">
-        <v>-0.03397952303047747</v>
+        <v>-0.0189623415427717</v>
       </c>
       <c r="D23">
-        <v>0.1042319249148299</v>
+        <v>0.6578626826199325</v>
       </c>
       <c r="E23">
-        <v>0.5095606599712474</v>
+        <v>-0.03592169117934928</v>
       </c>
       <c r="F23">
-        <v>0.09612828313991359</v>
+        <v>0.04801827927960589</v>
       </c>
       <c r="G23">
-        <v>-0.2906335063011784</v>
+        <v>-0.110046377004017</v>
       </c>
       <c r="H23">
-        <v>-0.173162325031384</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.1348609233321378</v>
+      </c>
+      <c r="I23">
+        <v>0.01312518519031295</v>
+      </c>
+      <c r="J23">
+        <v>0.02155938280854029</v>
+      </c>
+      <c r="K23">
+        <v>0.02852931397730481</v>
+      </c>
+      <c r="L23">
+        <v>-0.0002720256104193483</v>
+      </c>
+      <c r="M23">
+        <v>0.002295637226920691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07854076657968076</v>
+        <v>-0.07690325651595786</v>
       </c>
       <c r="C24">
-        <v>-0.07603740029413675</v>
+        <v>-0.07906276183091279</v>
       </c>
       <c r="D24">
-        <v>-0.031649197159904</v>
+        <v>-0.01197924617031842</v>
       </c>
       <c r="E24">
-        <v>0.03821843888543495</v>
+        <v>-0.01628859416489881</v>
       </c>
       <c r="F24">
-        <v>0.03143501863560789</v>
+        <v>-0.1155708158131506</v>
       </c>
       <c r="G24">
-        <v>0.04907514975954132</v>
+        <v>0.02024277520311513</v>
       </c>
       <c r="H24">
-        <v>-0.03230361552117871</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.03391730392878104</v>
+      </c>
+      <c r="I24">
+        <v>0.05181485666771684</v>
+      </c>
+      <c r="J24">
+        <v>-0.05931062653335804</v>
+      </c>
+      <c r="K24">
+        <v>0.01308424328846807</v>
+      </c>
+      <c r="L24">
+        <v>-0.04771757129036763</v>
+      </c>
+      <c r="M24">
+        <v>0.1167698065635777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06900074231849253</v>
+        <v>-0.07333801613903096</v>
       </c>
       <c r="C25">
-        <v>-0.04297635495680004</v>
+        <v>-0.05443188235011989</v>
       </c>
       <c r="D25">
-        <v>-0.02866218313008458</v>
+        <v>-0.03096385196164798</v>
       </c>
       <c r="E25">
-        <v>0.04356842879410826</v>
+        <v>-0.0133835251259501</v>
       </c>
       <c r="F25">
-        <v>0.04496446125888238</v>
+        <v>-0.1240678348874058</v>
       </c>
       <c r="G25">
-        <v>0.05936144913531145</v>
+        <v>0.007039740679058028</v>
       </c>
       <c r="H25">
-        <v>-0.005884165603462755</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.0295031721795423</v>
+      </c>
+      <c r="I25">
+        <v>0.05252430413876875</v>
+      </c>
+      <c r="J25">
+        <v>-0.05406125526265058</v>
+      </c>
+      <c r="K25">
+        <v>0.01692840595115461</v>
+      </c>
+      <c r="L25">
+        <v>-0.06969099530231423</v>
+      </c>
+      <c r="M25">
+        <v>0.1253761273255508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.04426667756917191</v>
+        <v>-0.04309197146724553</v>
       </c>
       <c r="C26">
-        <v>-0.03821882059905975</v>
+        <v>-0.01915371766891291</v>
       </c>
       <c r="D26">
-        <v>-0.03861857430357789</v>
+        <v>0.01426224191095458</v>
       </c>
       <c r="E26">
-        <v>0.002756487042321894</v>
+        <v>-0.0004742408675748172</v>
       </c>
       <c r="F26">
-        <v>0.007112986426194546</v>
+        <v>-0.03689812961178603</v>
       </c>
       <c r="G26">
-        <v>-0.02367888996952807</v>
+        <v>0.004026186330348056</v>
       </c>
       <c r="H26">
-        <v>-0.01265676147293752</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.00183235846092277</v>
+      </c>
+      <c r="I26">
+        <v>0.02210796262223168</v>
+      </c>
+      <c r="J26">
+        <v>0.01025377267487738</v>
+      </c>
+      <c r="K26">
+        <v>-0.1283854997799585</v>
+      </c>
+      <c r="L26">
+        <v>0.08408264062798362</v>
+      </c>
+      <c r="M26">
+        <v>0.01457864379022459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1057334519863313</v>
+        <v>-0.1466258438537103</v>
       </c>
       <c r="C28">
-        <v>0.2944408343708371</v>
+        <v>0.2835261245252558</v>
       </c>
       <c r="D28">
-        <v>-0.05063322142364804</v>
+        <v>-0.01101357694586133</v>
       </c>
       <c r="E28">
-        <v>0.0007058793574650796</v>
+        <v>-0.02440245742588245</v>
       </c>
       <c r="F28">
-        <v>-0.05003646653662981</v>
+        <v>-0.004007075722933471</v>
       </c>
       <c r="G28">
-        <v>-0.003506810062854231</v>
+        <v>0.0081327610683494</v>
       </c>
       <c r="H28">
-        <v>-0.06076387668179675</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.02110866894979199</v>
+      </c>
+      <c r="I28">
+        <v>-0.01167225293852359</v>
+      </c>
+      <c r="J28">
+        <v>-0.01936694640207199</v>
+      </c>
+      <c r="K28">
+        <v>-0.01943049880951361</v>
+      </c>
+      <c r="L28">
+        <v>0.02660522124709128</v>
+      </c>
+      <c r="M28">
+        <v>-0.01392875297690729</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05276202845563006</v>
+        <v>-0.04065867285710051</v>
       </c>
       <c r="C29">
-        <v>-0.02166448924073463</v>
+        <v>-0.02974067262985606</v>
       </c>
       <c r="D29">
-        <v>-0.01270066886723279</v>
+        <v>-0.002217393844692875</v>
       </c>
       <c r="E29">
-        <v>0.02860144801468931</v>
+        <v>-0.02115464861107402</v>
       </c>
       <c r="F29">
-        <v>0.005074496922444909</v>
+        <v>-0.05680264023295171</v>
       </c>
       <c r="G29">
-        <v>-0.01060237861176541</v>
+        <v>-0.009722413389302968</v>
       </c>
       <c r="H29">
-        <v>0.004540478708791796</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.0173003017018209</v>
+      </c>
+      <c r="I29">
+        <v>-0.004169471774653734</v>
+      </c>
+      <c r="J29">
+        <v>0.01872869961635271</v>
+      </c>
+      <c r="K29">
+        <v>-0.08200388679569023</v>
+      </c>
+      <c r="L29">
+        <v>0.009837747208714824</v>
+      </c>
+      <c r="M29">
+        <v>0.0159514870835267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1297785479273004</v>
+        <v>-0.1052780329492246</v>
       </c>
       <c r="C30">
-        <v>-0.05753327729087734</v>
+        <v>-0.06590295044345067</v>
       </c>
       <c r="D30">
-        <v>-0.05678506614633335</v>
+        <v>0.003963993722292338</v>
       </c>
       <c r="E30">
-        <v>0.1302950223521727</v>
+        <v>-0.02591852519932541</v>
       </c>
       <c r="F30">
-        <v>-0.005662424160518458</v>
+        <v>-0.2123249566424912</v>
       </c>
       <c r="G30">
-        <v>0.1664610063535497</v>
+        <v>-0.04318692896649157</v>
       </c>
       <c r="H30">
-        <v>-0.03738941547047141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.2471726323894818</v>
+      </c>
+      <c r="I30">
+        <v>-0.07038046311475826</v>
+      </c>
+      <c r="J30">
+        <v>-0.0469674242407944</v>
+      </c>
+      <c r="K30">
+        <v>-0.1646020898698119</v>
+      </c>
+      <c r="L30">
+        <v>0.01400392077814514</v>
+      </c>
+      <c r="M30">
+        <v>-0.3954147064852215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.05000539523495406</v>
+        <v>-0.03746960303470501</v>
       </c>
       <c r="C31">
-        <v>-0.02633509820266145</v>
+        <v>-0.04928457052604358</v>
       </c>
       <c r="D31">
-        <v>0.007842260179528864</v>
+        <v>0.003971001408857189</v>
       </c>
       <c r="E31">
-        <v>-0.001403392043187996</v>
+        <v>0.00866981907826494</v>
       </c>
       <c r="F31">
-        <v>0.009304312762879607</v>
+        <v>-0.02699400375002043</v>
       </c>
       <c r="G31">
-        <v>-0.03678262484856758</v>
+        <v>-0.02050758640734044</v>
       </c>
       <c r="H31">
-        <v>0.009065572190121133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.04148442207687202</v>
+      </c>
+      <c r="I31">
+        <v>-0.001103231924917284</v>
+      </c>
+      <c r="J31">
+        <v>0.004251205068675917</v>
+      </c>
+      <c r="K31">
+        <v>-0.03549620718820275</v>
+      </c>
+      <c r="L31">
+        <v>-0.01906188551213425</v>
+      </c>
+      <c r="M31">
+        <v>-0.006733271211176092</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.02057199759001373</v>
+        <v>-0.04509619616382614</v>
       </c>
       <c r="C32">
-        <v>0.01461278312275934</v>
+        <v>0.002344892127055676</v>
       </c>
       <c r="D32">
-        <v>0.01132269210899867</v>
+        <v>-0.01488038270413532</v>
       </c>
       <c r="E32">
-        <v>0.08677705130993972</v>
+        <v>0.001581865801961921</v>
       </c>
       <c r="F32">
-        <v>0.07901510851276708</v>
+        <v>-0.09003448937103166</v>
       </c>
       <c r="G32">
-        <v>0.02655506154162075</v>
+        <v>0.02113968861827563</v>
       </c>
       <c r="H32">
-        <v>-0.03755160216475564</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.05296593833642423</v>
+      </c>
+      <c r="I32">
+        <v>0.05883895441337195</v>
+      </c>
+      <c r="J32">
+        <v>-0.01564997048492631</v>
+      </c>
+      <c r="K32">
+        <v>-0.0358438982779333</v>
+      </c>
+      <c r="L32">
+        <v>-0.006853129019544406</v>
+      </c>
+      <c r="M32">
+        <v>-0.1794784492219996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1026401482324704</v>
+        <v>-0.1001027946169817</v>
       </c>
       <c r="C33">
-        <v>-0.04532617460555</v>
+        <v>-0.06886219934410046</v>
       </c>
       <c r="D33">
-        <v>-0.004750276269857707</v>
+        <v>-0.01122834228662252</v>
       </c>
       <c r="E33">
-        <v>0.02037773914331748</v>
+        <v>0.01363255245971648</v>
       </c>
       <c r="F33">
-        <v>0.05215027137537634</v>
+        <v>-0.07733460723969492</v>
       </c>
       <c r="G33">
-        <v>0.01199386234935094</v>
+        <v>-0.02049242648568414</v>
       </c>
       <c r="H33">
-        <v>-0.003527474918834613</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.01047875166334183</v>
+      </c>
+      <c r="I33">
+        <v>0.009577279467224914</v>
+      </c>
+      <c r="J33">
+        <v>0.04760757407300183</v>
+      </c>
+      <c r="K33">
+        <v>-0.03419892021405031</v>
+      </c>
+      <c r="L33">
+        <v>0.003571627809715123</v>
+      </c>
+      <c r="M33">
+        <v>0.01454865778467865</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05605614420139544</v>
+        <v>-0.06377213486654804</v>
       </c>
       <c r="C34">
-        <v>-0.07889164302705881</v>
+        <v>-0.0676678053413968</v>
       </c>
       <c r="D34">
-        <v>-0.01890422710227266</v>
+        <v>-0.01996209564870903</v>
       </c>
       <c r="E34">
-        <v>0.02205590307304146</v>
+        <v>-0.008236707274219955</v>
       </c>
       <c r="F34">
-        <v>0.0307006998426406</v>
+        <v>-0.1034082073289343</v>
       </c>
       <c r="G34">
-        <v>0.03039593129719317</v>
+        <v>0.01839761078636609</v>
       </c>
       <c r="H34">
-        <v>-0.0270455098572664</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.008856364073012934</v>
+      </c>
+      <c r="I34">
+        <v>0.06362702568076788</v>
+      </c>
+      <c r="J34">
+        <v>-0.06195628749474824</v>
+      </c>
+      <c r="K34">
+        <v>-0.01883627155237464</v>
+      </c>
+      <c r="L34">
+        <v>-0.0452304509162988</v>
+      </c>
+      <c r="M34">
+        <v>0.1329352454495216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04463840285834726</v>
+        <v>-0.02588047872564157</v>
       </c>
       <c r="C35">
-        <v>-0.04626944297708652</v>
+        <v>-0.02556978535813463</v>
       </c>
       <c r="D35">
-        <v>-0.006450347866577026</v>
+        <v>0.0003779018086363157</v>
       </c>
       <c r="E35">
-        <v>0.01930410116529803</v>
+        <v>0.001142359700169791</v>
       </c>
       <c r="F35">
-        <v>0.008302998657086587</v>
+        <v>-0.03401061463481237</v>
       </c>
       <c r="G35">
-        <v>0.01828129026165832</v>
+        <v>-0.002106972661119542</v>
       </c>
       <c r="H35">
-        <v>0.003898189725831083</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.01401084723625878</v>
+      </c>
+      <c r="I35">
+        <v>0.04248171021705362</v>
+      </c>
+      <c r="J35">
+        <v>-0.03700426489181469</v>
+      </c>
+      <c r="K35">
+        <v>-0.06976335113239933</v>
+      </c>
+      <c r="L35">
+        <v>-0.006674399506089412</v>
+      </c>
+      <c r="M35">
+        <v>0.00131736679710276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03626903397436618</v>
+        <v>-0.02824481374039955</v>
       </c>
       <c r="C36">
-        <v>-0.02367877843354422</v>
+        <v>-0.02045769720976817</v>
       </c>
       <c r="D36">
-        <v>-0.02704897817306606</v>
+        <v>0.01410873964079491</v>
       </c>
       <c r="E36">
-        <v>0.04011670659614761</v>
+        <v>-0.01276833261146869</v>
       </c>
       <c r="F36">
-        <v>0.03039113833188132</v>
+        <v>-0.06499520027399136</v>
       </c>
       <c r="G36">
-        <v>0.0096810374223584</v>
+        <v>0.004412925924161894</v>
       </c>
       <c r="H36">
-        <v>0.02392731682120681</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.00201392052493514</v>
+      </c>
+      <c r="I36">
+        <v>-0.01644107027781559</v>
+      </c>
+      <c r="J36">
+        <v>0.01246157098307876</v>
+      </c>
+      <c r="K36">
+        <v>-0.05826053046423862</v>
+      </c>
+      <c r="L36">
+        <v>0.01162759652954964</v>
+      </c>
+      <c r="M36">
+        <v>0.04768998443948907</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04618105777657892</v>
+        <v>-0.02808994327548885</v>
       </c>
       <c r="C38">
-        <v>-0.0332843457610569</v>
+        <v>-0.04699994836938552</v>
       </c>
       <c r="D38">
-        <v>0.01657800988395896</v>
+        <v>0.0257999790115413</v>
       </c>
       <c r="E38">
-        <v>0.03933785497084259</v>
+        <v>-0.004752448132908216</v>
       </c>
       <c r="F38">
-        <v>0.0496935933529437</v>
+        <v>0.04971333804597845</v>
       </c>
       <c r="G38">
-        <v>0.002794866295354501</v>
+        <v>-0.05693509530612915</v>
       </c>
       <c r="H38">
-        <v>-0.05106448000056683</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.01805653861838959</v>
+      </c>
+      <c r="I38">
+        <v>0.02010217861054433</v>
+      </c>
+      <c r="J38">
+        <v>0.03576527787716458</v>
+      </c>
+      <c r="K38">
+        <v>-0.01848035851921603</v>
+      </c>
+      <c r="L38">
+        <v>0.1157266910090795</v>
+      </c>
+      <c r="M38">
+        <v>-0.06971909470092831</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09998904502723763</v>
+        <v>-0.1050663941865329</v>
       </c>
       <c r="C39">
-        <v>-0.09288944528249854</v>
+        <v>-0.097464005212308</v>
       </c>
       <c r="D39">
-        <v>-0.00893699628620508</v>
+        <v>-0.08192667576073361</v>
       </c>
       <c r="E39">
-        <v>0.0369054614465702</v>
+        <v>0.03113214267877232</v>
       </c>
       <c r="F39">
-        <v>0.02794817716233747</v>
+        <v>-0.1761110653523981</v>
       </c>
       <c r="G39">
-        <v>0.08558136623978226</v>
+        <v>-0.06428370941627194</v>
       </c>
       <c r="H39">
-        <v>-0.102824609918389</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.1172819561634921</v>
+      </c>
+      <c r="I39">
+        <v>0.071935712839864</v>
+      </c>
+      <c r="J39">
+        <v>-0.1669203443021136</v>
+      </c>
+      <c r="K39">
+        <v>0.01874909571943654</v>
+      </c>
+      <c r="L39">
+        <v>-0.1025973700025079</v>
+      </c>
+      <c r="M39">
+        <v>-0.03296853953715889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.0407828320398553</v>
+        <v>-0.03148584154156931</v>
       </c>
       <c r="C40">
-        <v>-0.03199508173417663</v>
+        <v>-0.05857746070447827</v>
       </c>
       <c r="D40">
-        <v>0.05320405559941658</v>
+        <v>0.04802476563413319</v>
       </c>
       <c r="E40">
-        <v>0.1189837999145212</v>
+        <v>-0.006841295154470882</v>
       </c>
       <c r="F40">
-        <v>0.07732790431106198</v>
+        <v>-0.1035296242133906</v>
       </c>
       <c r="G40">
-        <v>0.07399351742447792</v>
+        <v>0.08096476283952592</v>
       </c>
       <c r="H40">
-        <v>-0.09833068828571015</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.04080987197225493</v>
+      </c>
+      <c r="I40">
+        <v>0.04587294814446815</v>
+      </c>
+      <c r="J40">
+        <v>0.03666433860134442</v>
+      </c>
+      <c r="K40">
+        <v>-0.01496492056337131</v>
+      </c>
+      <c r="L40">
+        <v>0.1373787179489781</v>
+      </c>
+      <c r="M40">
+        <v>-0.06080979855616464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.0455245176205727</v>
+        <v>-0.03890901800667311</v>
       </c>
       <c r="C41">
-        <v>-0.04941805926623681</v>
+        <v>-0.03721027223670589</v>
       </c>
       <c r="D41">
-        <v>-0.006078608791492886</v>
+        <v>-0.01387086523531863</v>
       </c>
       <c r="E41">
-        <v>0.001793821541076112</v>
+        <v>0.003132840592818039</v>
       </c>
       <c r="F41">
-        <v>0.03004053509229563</v>
+        <v>-0.02009143966724258</v>
       </c>
       <c r="G41">
-        <v>0.004349269109002434</v>
+        <v>-0.01688728358624441</v>
       </c>
       <c r="H41">
-        <v>-0.02200051788021782</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.001497919102407803</v>
+      </c>
+      <c r="I41">
+        <v>0.03043578257178708</v>
+      </c>
+      <c r="J41">
+        <v>-0.02032068111568417</v>
+      </c>
+      <c r="K41">
+        <v>-0.04013912328673374</v>
+      </c>
+      <c r="L41">
+        <v>0.02658275112397242</v>
+      </c>
+      <c r="M41">
+        <v>0.03031727932142733</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.05919083626348669</v>
+        <v>-0.05000764855406314</v>
       </c>
       <c r="C43">
-        <v>-0.03878730954125553</v>
+        <v>-0.04491167657659183</v>
       </c>
       <c r="D43">
-        <v>-0.02739214381043668</v>
+        <v>0.01344363555904062</v>
       </c>
       <c r="E43">
-        <v>0.03100038813991065</v>
+        <v>-0.009855898601291952</v>
       </c>
       <c r="F43">
-        <v>0.01383680752388019</v>
+        <v>-0.01255896824645868</v>
       </c>
       <c r="G43">
-        <v>-0.01472548034515676</v>
+        <v>-0.04391051124916059</v>
       </c>
       <c r="H43">
-        <v>-0.02047027546594014</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.003581905797632889</v>
+      </c>
+      <c r="I43">
+        <v>0.003591371075127309</v>
+      </c>
+      <c r="J43">
+        <v>-0.0388157937590435</v>
+      </c>
+      <c r="K43">
+        <v>-0.03093275065208087</v>
+      </c>
+      <c r="L43">
+        <v>0.003703935476007087</v>
+      </c>
+      <c r="M43">
+        <v>0.0410118525704886</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.04617673605834025</v>
+        <v>-0.08330744884109395</v>
       </c>
       <c r="C44">
-        <v>-0.01235622444604976</v>
+        <v>-0.05732523939893681</v>
       </c>
       <c r="D44">
-        <v>-0.07571106066087002</v>
+        <v>0.0800408859832096</v>
       </c>
       <c r="E44">
-        <v>0.09635135725882983</v>
+        <v>-0.1070421023912981</v>
       </c>
       <c r="F44">
-        <v>0.04519070809967771</v>
+        <v>-0.1721978120327739</v>
       </c>
       <c r="G44">
-        <v>0.1087590900048542</v>
+        <v>0.01286081704490857</v>
       </c>
       <c r="H44">
-        <v>-0.01566047422001403</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.02721533036955351</v>
+      </c>
+      <c r="I44">
+        <v>0.07119225253415935</v>
+      </c>
+      <c r="J44">
+        <v>-0.005966353326800345</v>
+      </c>
+      <c r="K44">
+        <v>0.0009581195526665691</v>
+      </c>
+      <c r="L44">
+        <v>0.03250192100710098</v>
+      </c>
+      <c r="M44">
+        <v>-0.110227632530763</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02226632428776842</v>
+        <v>-0.03268915582469535</v>
       </c>
       <c r="C46">
-        <v>-0.04731768407692333</v>
+        <v>-0.04044697276187266</v>
       </c>
       <c r="D46">
-        <v>-0.01647966345814292</v>
+        <v>0.04152899650461871</v>
       </c>
       <c r="E46">
-        <v>0.03922561465853491</v>
+        <v>-0.0395139326221662</v>
       </c>
       <c r="F46">
-        <v>0.0106310585792756</v>
+        <v>-0.03755964060742278</v>
       </c>
       <c r="G46">
-        <v>-0.008871647414251246</v>
+        <v>0.01689552176399348</v>
       </c>
       <c r="H46">
-        <v>-0.0116364689289665</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.01804356439195676</v>
+      </c>
+      <c r="I46">
+        <v>0.03628607400452871</v>
+      </c>
+      <c r="J46">
+        <v>0.03980554331387943</v>
+      </c>
+      <c r="K46">
+        <v>-0.1157195745299611</v>
+      </c>
+      <c r="L46">
+        <v>0.007162223243133377</v>
+      </c>
+      <c r="M46">
+        <v>0.02224107130186143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02331063957583633</v>
+        <v>-0.04121272405029731</v>
       </c>
       <c r="C47">
-        <v>-0.003260177375127295</v>
+        <v>-0.02738023938650996</v>
       </c>
       <c r="D47">
-        <v>0.008963919104636928</v>
+        <v>0.01923538990277803</v>
       </c>
       <c r="E47">
-        <v>0.06533795147443787</v>
+        <v>-0.0142388491814404</v>
       </c>
       <c r="F47">
-        <v>0.02185806826319022</v>
+        <v>-0.03739137034996889</v>
       </c>
       <c r="G47">
-        <v>-0.001137475127890703</v>
+        <v>-0.006266732347151889</v>
       </c>
       <c r="H47">
-        <v>0.03640998194537166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.004292059012567988</v>
+      </c>
+      <c r="I47">
+        <v>-0.01857370589802097</v>
+      </c>
+      <c r="J47">
+        <v>0.02665056821507552</v>
+      </c>
+      <c r="K47">
+        <v>-0.0369714349076638</v>
+      </c>
+      <c r="L47">
+        <v>0.01788349548439801</v>
+      </c>
+      <c r="M47">
+        <v>0.06855539692908244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.034841795381961</v>
+        <v>-0.04184311067797501</v>
       </c>
       <c r="C48">
-        <v>-0.02724450426581149</v>
+        <v>-0.02232535098930276</v>
       </c>
       <c r="D48">
-        <v>-0.004112308832030748</v>
+        <v>0.01180257804297212</v>
       </c>
       <c r="E48">
-        <v>0.05364687617445633</v>
+        <v>-0.001177751179851689</v>
       </c>
       <c r="F48">
-        <v>0.02450692214780485</v>
+        <v>-0.06937878112312852</v>
       </c>
       <c r="G48">
-        <v>-0.02650485391021971</v>
+        <v>0.04283521414117628</v>
       </c>
       <c r="H48">
-        <v>-0.002443207908455724</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.007621418218024786</v>
+      </c>
+      <c r="I48">
+        <v>-0.00613575340586443</v>
+      </c>
+      <c r="J48">
+        <v>-0.008617575917144502</v>
+      </c>
+      <c r="K48">
+        <v>-0.07272216158934391</v>
+      </c>
+      <c r="L48">
+        <v>-0.01540362595018508</v>
+      </c>
+      <c r="M48">
+        <v>0.02870400567955478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2114428567422572</v>
+        <v>-0.2227325079640359</v>
       </c>
       <c r="C49">
-        <v>-0.1289223272360409</v>
+        <v>-0.07931079130462702</v>
       </c>
       <c r="D49">
-        <v>-0.0668920422386956</v>
+        <v>-0.05187423755157147</v>
       </c>
       <c r="E49">
-        <v>-0.05366551673928862</v>
+        <v>-0.0323435643262596</v>
       </c>
       <c r="F49">
-        <v>-0.1800887517371307</v>
+        <v>0.2493581000814462</v>
       </c>
       <c r="G49">
-        <v>0.03942169915103472</v>
+        <v>0.101463866404167</v>
       </c>
       <c r="H49">
-        <v>-0.05296950959112942</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.1679851278292866</v>
+      </c>
+      <c r="I49">
+        <v>0.09748119056563199</v>
+      </c>
+      <c r="J49">
+        <v>0.007570158766456586</v>
+      </c>
+      <c r="K49">
+        <v>0.1586165924157727</v>
+      </c>
+      <c r="L49">
+        <v>-0.08926518086464375</v>
+      </c>
+      <c r="M49">
+        <v>0.1402976504806185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05572894097694679</v>
+        <v>-0.04665641060908501</v>
       </c>
       <c r="C50">
-        <v>-0.02853409076470656</v>
+        <v>-0.04037714168116233</v>
       </c>
       <c r="D50">
-        <v>0.0008974344308936189</v>
+        <v>0.001627546666490229</v>
       </c>
       <c r="E50">
-        <v>0.02530436709832221</v>
+        <v>0.01148011263839494</v>
       </c>
       <c r="F50">
-        <v>0.04382146381516684</v>
+        <v>-0.05219806424179497</v>
       </c>
       <c r="G50">
-        <v>-0.04386891497072391</v>
+        <v>-0.03264047719925892</v>
       </c>
       <c r="H50">
-        <v>0.0404926555120045</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.02556889406485447</v>
+      </c>
+      <c r="I50">
+        <v>-0.01384602352351316</v>
+      </c>
+      <c r="J50">
+        <v>0.02739423722124632</v>
+      </c>
+      <c r="K50">
+        <v>-0.05801185473460986</v>
+      </c>
+      <c r="L50">
+        <v>-0.00308594911374045</v>
+      </c>
+      <c r="M50">
+        <v>-0.02185843683147739</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.03091267100216713</v>
+        <v>-0.02689903790606486</v>
       </c>
       <c r="C51">
-        <v>-0.01513763158770996</v>
+        <v>-0.006238360495143209</v>
       </c>
       <c r="D51">
-        <v>0.002688526293748416</v>
+        <v>-0.0008774151110168701</v>
       </c>
       <c r="E51">
-        <v>0.003219881026550665</v>
+        <v>-0.01763862537703783</v>
       </c>
       <c r="F51">
-        <v>0.007678700710474414</v>
+        <v>0.02161722788505127</v>
       </c>
       <c r="G51">
-        <v>0.0079024156916208</v>
+        <v>-0.01032827410172055</v>
       </c>
       <c r="H51">
-        <v>-0.02193509102638386</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.008136557569334565</v>
+      </c>
+      <c r="I51">
+        <v>0.01127263440692991</v>
+      </c>
+      <c r="J51">
+        <v>-0.03532838002645599</v>
+      </c>
+      <c r="K51">
+        <v>0.05903271018677062</v>
+      </c>
+      <c r="L51">
+        <v>-0.05663368066969898</v>
+      </c>
+      <c r="M51">
+        <v>0.00708755471661744</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.03521190877917486</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.009863486426250838</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01771471710302284</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-2.331414031890594e-05</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.02883658893953163</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.04759617543796996</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.00113202399878178</v>
+      </c>
+      <c r="I52">
+        <v>-0.0008049894476633864</v>
+      </c>
+      <c r="J52">
+        <v>0.01675402911060559</v>
+      </c>
+      <c r="K52">
+        <v>0.004001684231656826</v>
+      </c>
+      <c r="L52">
+        <v>-0.01562175397824498</v>
+      </c>
+      <c r="M52">
+        <v>-0.06224614395841221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1718862839824689</v>
+        <v>-0.1601015774134646</v>
       </c>
       <c r="C53">
-        <v>-0.004050545480525041</v>
+        <v>-0.04619523153839451</v>
       </c>
       <c r="D53">
-        <v>-0.01506140531122573</v>
+        <v>-0.01514459530870139</v>
       </c>
       <c r="E53">
-        <v>-0.07779782387105905</v>
+        <v>0.005236383352939395</v>
       </c>
       <c r="F53">
-        <v>0.2416684351654239</v>
+        <v>0.03596356251902583</v>
       </c>
       <c r="G53">
-        <v>-0.03820874717863732</v>
+        <v>-0.2356345866634945</v>
       </c>
       <c r="H53">
-        <v>0.07773364121382895</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.1380741981320121</v>
+      </c>
+      <c r="I53">
+        <v>0.0141941381826781</v>
+      </c>
+      <c r="J53">
+        <v>0.1224255358624529</v>
+      </c>
+      <c r="K53">
+        <v>0.02469395961037167</v>
+      </c>
+      <c r="L53">
+        <v>0.00118486990161934</v>
+      </c>
+      <c r="M53">
+        <v>-0.09420387043056962</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04794987698034096</v>
+        <v>-0.0536644011409082</v>
       </c>
       <c r="C54">
-        <v>-0.03632618500848953</v>
+        <v>-0.04048135808082001</v>
       </c>
       <c r="D54">
-        <v>-0.03416716032664283</v>
+        <v>0.01788049536558985</v>
       </c>
       <c r="E54">
-        <v>0.05316687411324698</v>
+        <v>-0.02895434103942317</v>
       </c>
       <c r="F54">
-        <v>0.0190604561970495</v>
+        <v>-0.1060094156257478</v>
       </c>
       <c r="G54">
-        <v>-0.003490099967988184</v>
+        <v>0.05226244593615318</v>
       </c>
       <c r="H54">
-        <v>0.0001568080243555666</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.04702671517736392</v>
+      </c>
+      <c r="I54">
+        <v>-0.02079803666369297</v>
+      </c>
+      <c r="J54">
+        <v>-0.004628805333291527</v>
+      </c>
+      <c r="K54">
+        <v>-0.1422359945084565</v>
+      </c>
+      <c r="L54">
+        <v>0.04110374174468399</v>
+      </c>
+      <c r="M54">
+        <v>0.04163047746005251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09204371645422908</v>
+        <v>-0.08451219029961847</v>
       </c>
       <c r="C55">
-        <v>-0.005017767881640455</v>
+        <v>-0.03673966059589052</v>
       </c>
       <c r="D55">
-        <v>-0.01781108009501231</v>
+        <v>-0.02957158344946675</v>
       </c>
       <c r="E55">
-        <v>-0.01548093938648503</v>
+        <v>-0.01017931705251549</v>
       </c>
       <c r="F55">
-        <v>0.2037058182459962</v>
+        <v>-0.02062746581741099</v>
       </c>
       <c r="G55">
-        <v>-0.04586321450356871</v>
+        <v>-0.1333044515729861</v>
       </c>
       <c r="H55">
-        <v>0.08717127653659877</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.1158422352577853</v>
+      </c>
+      <c r="I55">
+        <v>0.01509168646894936</v>
+      </c>
+      <c r="J55">
+        <v>0.06382517324109641</v>
+      </c>
+      <c r="K55">
+        <v>0.005471189967483408</v>
+      </c>
+      <c r="L55">
+        <v>-0.0005282499738843963</v>
+      </c>
+      <c r="M55">
+        <v>0.01078912476494437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1630365875802464</v>
+        <v>-0.1511973762556361</v>
       </c>
       <c r="C56">
-        <v>-0.009069980649874004</v>
+        <v>-0.06915192866997637</v>
       </c>
       <c r="D56">
-        <v>-0.02907197014216997</v>
+        <v>-0.03316837702006621</v>
       </c>
       <c r="E56">
-        <v>-0.08114449405643695</v>
+        <v>-0.01508666211720579</v>
       </c>
       <c r="F56">
-        <v>0.2166032685861581</v>
+        <v>0.01489202651004857</v>
       </c>
       <c r="G56">
-        <v>-0.08780591057676673</v>
+        <v>-0.2161308417383684</v>
       </c>
       <c r="H56">
-        <v>0.07568514486470322</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.1363943979288377</v>
+      </c>
+      <c r="I56">
+        <v>0.01820479285143569</v>
+      </c>
+      <c r="J56">
+        <v>0.0966812669456492</v>
+      </c>
+      <c r="K56">
+        <v>0.03602090842353634</v>
+      </c>
+      <c r="L56">
+        <v>0.04264100815374311</v>
+      </c>
+      <c r="M56">
+        <v>-0.04536698598782134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02153895993594903</v>
+        <v>-0.03785792215777178</v>
       </c>
       <c r="C58">
-        <v>-0.04712578970012143</v>
+        <v>-0.03356594885566116</v>
       </c>
       <c r="D58">
-        <v>0.03605824155447714</v>
+        <v>0.08135892721721544</v>
       </c>
       <c r="E58">
-        <v>0.3859484037299506</v>
+        <v>-0.002527632026097047</v>
       </c>
       <c r="F58">
-        <v>-0.317558463106708</v>
+        <v>-0.06596569825604832</v>
       </c>
       <c r="G58">
-        <v>-0.008452633761869929</v>
+        <v>0.04267025121220635</v>
       </c>
       <c r="H58">
-        <v>0.3335501363615468</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1406243966271324</v>
+      </c>
+      <c r="I58">
+        <v>-0.01424962445443888</v>
+      </c>
+      <c r="J58">
+        <v>-0.2004487861932985</v>
+      </c>
+      <c r="K58">
+        <v>-0.1660946947170441</v>
+      </c>
+      <c r="L58">
+        <v>-0.4056019033395715</v>
+      </c>
+      <c r="M58">
+        <v>-0.02730498487184185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2247001325427974</v>
+        <v>-0.2258931876923635</v>
       </c>
       <c r="C59">
-        <v>0.4001001764604519</v>
+        <v>0.298004000837543</v>
       </c>
       <c r="D59">
-        <v>-0.0512080338598466</v>
+        <v>-0.04728052740136934</v>
       </c>
       <c r="E59">
-        <v>-0.004218755057138947</v>
+        <v>-0.01311762435848108</v>
       </c>
       <c r="F59">
-        <v>0.05375965904251109</v>
+        <v>-0.0226963092031768</v>
       </c>
       <c r="G59">
-        <v>0.0327512879642749</v>
+        <v>-0.04568655071610656</v>
       </c>
       <c r="H59">
-        <v>-0.06517134981286647</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.09594980939823074</v>
+      </c>
+      <c r="I59">
+        <v>0.02376849567477231</v>
+      </c>
+      <c r="J59">
+        <v>-0.06034737934821452</v>
+      </c>
+      <c r="K59">
+        <v>0.1108275129902026</v>
+      </c>
+      <c r="L59">
+        <v>0.04390803281923365</v>
+      </c>
+      <c r="M59">
+        <v>-0.04970401786655367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2544243983396162</v>
+        <v>-0.2389702312187031</v>
       </c>
       <c r="C60">
-        <v>-0.07504504615319273</v>
+        <v>-0.1230990871111762</v>
       </c>
       <c r="D60">
-        <v>-0.07430740662698562</v>
+        <v>-0.06297129676281214</v>
       </c>
       <c r="E60">
-        <v>-0.001152224221930539</v>
+        <v>-0.04621571321339828</v>
       </c>
       <c r="F60">
-        <v>-0.0534301638472765</v>
+        <v>0.1111336036285279</v>
       </c>
       <c r="G60">
-        <v>-0.01841663304196584</v>
+        <v>0.01218310761371673</v>
       </c>
       <c r="H60">
-        <v>0.06087843088506919</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.1137777847031108</v>
+      </c>
+      <c r="I60">
+        <v>-0.1244887089201494</v>
+      </c>
+      <c r="J60">
+        <v>0.1272691158631215</v>
+      </c>
+      <c r="K60">
+        <v>0.1973742025159643</v>
+      </c>
+      <c r="L60">
+        <v>-0.08042596948990414</v>
+      </c>
+      <c r="M60">
+        <v>-0.01915915852846902</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08589564857005212</v>
+        <v>-0.1022896911840108</v>
       </c>
       <c r="C61">
-        <v>-0.05143166484984154</v>
+        <v>-0.06872357075008102</v>
       </c>
       <c r="D61">
-        <v>-0.01118877794311712</v>
+        <v>-0.04307905296143258</v>
       </c>
       <c r="E61">
-        <v>0.005949001542317674</v>
+        <v>-0.004392118193689542</v>
       </c>
       <c r="F61">
-        <v>0.02504109205403014</v>
+        <v>-0.1460812890526374</v>
       </c>
       <c r="G61">
-        <v>0.01609803155337033</v>
+        <v>-0.06224508314253944</v>
       </c>
       <c r="H61">
-        <v>-0.06070095025540831</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.03744195679213207</v>
+      </c>
+      <c r="I61">
+        <v>0.06825012282886599</v>
+      </c>
+      <c r="J61">
+        <v>-0.09019466000990001</v>
+      </c>
+      <c r="K61">
+        <v>-0.03410070967882854</v>
+      </c>
+      <c r="L61">
+        <v>-0.03429227785698687</v>
+      </c>
+      <c r="M61">
+        <v>-0.007060926917739331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.158235322518</v>
+        <v>-0.1414609588199971</v>
       </c>
       <c r="C62">
-        <v>-0.04216138716523402</v>
+        <v>-0.06953426526356689</v>
       </c>
       <c r="D62">
-        <v>0.01092313109516666</v>
+        <v>-0.03248103586716224</v>
       </c>
       <c r="E62">
-        <v>-0.1423300201634326</v>
+        <v>0.03001595579981896</v>
       </c>
       <c r="F62">
-        <v>0.2155922419299014</v>
+        <v>0.03095931267396393</v>
       </c>
       <c r="G62">
-        <v>-0.02324909659824037</v>
+        <v>-0.1611593740737025</v>
       </c>
       <c r="H62">
-        <v>0.02939965743067031</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.138957423098863</v>
+      </c>
+      <c r="I62">
+        <v>0.03089631141467351</v>
+      </c>
+      <c r="J62">
+        <v>0.1418555745636023</v>
+      </c>
+      <c r="K62">
+        <v>-0.01031616150071134</v>
+      </c>
+      <c r="L62">
+        <v>0.07271502455514531</v>
+      </c>
+      <c r="M62">
+        <v>0.01439195516280395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.0396585870702797</v>
+        <v>-0.04664232156264141</v>
       </c>
       <c r="C63">
-        <v>-0.04144325717037237</v>
+        <v>-0.03079478763301276</v>
       </c>
       <c r="D63">
-        <v>-0.004716611038916954</v>
+        <v>-0.004016785010602236</v>
       </c>
       <c r="E63">
-        <v>0.002297919424183955</v>
+        <v>0.01290880980199018</v>
       </c>
       <c r="F63">
-        <v>0.02001698901955831</v>
+        <v>-0.07197751387302731</v>
       </c>
       <c r="G63">
-        <v>0.01420344987567213</v>
+        <v>0.009981257518255984</v>
       </c>
       <c r="H63">
-        <v>0.04674870029494808</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.007711143277521556</v>
+      </c>
+      <c r="I63">
+        <v>0.00884699846316271</v>
+      </c>
+      <c r="J63">
+        <v>-0.009418174094268497</v>
+      </c>
+      <c r="K63">
+        <v>-0.06263287568129798</v>
+      </c>
+      <c r="L63">
+        <v>-0.02122096105407328</v>
+      </c>
+      <c r="M63">
+        <v>0.03164679307659572</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.105658149193069</v>
+        <v>-0.09899352969291696</v>
       </c>
       <c r="C64">
-        <v>-0.02835939434001932</v>
+        <v>-0.04846988180465255</v>
       </c>
       <c r="D64">
-        <v>-0.03595543576471894</v>
+        <v>0.008627088355105169</v>
       </c>
       <c r="E64">
-        <v>0.04363015753647776</v>
+        <v>-0.03676241605773194</v>
       </c>
       <c r="F64">
-        <v>-0.004979028135847512</v>
+        <v>-0.07090453551095879</v>
       </c>
       <c r="G64">
-        <v>0.04827203914121602</v>
+        <v>0.003559895310764937</v>
       </c>
       <c r="H64">
-        <v>-0.05314577640396907</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.08804943024899321</v>
+      </c>
+      <c r="I64">
+        <v>-0.0132224680110412</v>
+      </c>
+      <c r="J64">
+        <v>-0.02914801767818488</v>
+      </c>
+      <c r="K64">
+        <v>-0.0136980292192559</v>
+      </c>
+      <c r="L64">
+        <v>0.008230597213910984</v>
+      </c>
+      <c r="M64">
+        <v>-0.01103627466619056</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1255962546215207</v>
+        <v>-0.1243157447515928</v>
       </c>
       <c r="C65">
-        <v>-0.0494321521313516</v>
+        <v>-0.0482254731123864</v>
       </c>
       <c r="D65">
-        <v>-0.02218462227628867</v>
+        <v>-0.01715367711601273</v>
       </c>
       <c r="E65">
-        <v>0.08734030839401491</v>
+        <v>0.02627036581840785</v>
       </c>
       <c r="F65">
-        <v>-0.1599783379424417</v>
+        <v>0.008070868863456085</v>
       </c>
       <c r="G65">
-        <v>0.003455221315719817</v>
+        <v>0.126271070343755</v>
       </c>
       <c r="H65">
-        <v>0.6127647161908222</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.08080323768814759</v>
+      </c>
+      <c r="I65">
+        <v>-0.5718524538141166</v>
+      </c>
+      <c r="J65">
+        <v>0.3541342415582145</v>
+      </c>
+      <c r="K65">
+        <v>-0.1466660805818077</v>
+      </c>
+      <c r="L65">
+        <v>-0.177279890363219</v>
+      </c>
+      <c r="M65">
+        <v>-0.0682906920735233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1600528642615598</v>
+        <v>-0.1344578023006222</v>
       </c>
       <c r="C66">
-        <v>-0.1233218963731651</v>
+        <v>-0.1336547309765085</v>
       </c>
       <c r="D66">
-        <v>-0.01016470642102934</v>
+        <v>-0.09597823321460301</v>
       </c>
       <c r="E66">
-        <v>-0.001469660179557601</v>
+        <v>0.04899176439601791</v>
       </c>
       <c r="F66">
-        <v>0.06031159443790949</v>
+        <v>-0.1864018313614492</v>
       </c>
       <c r="G66">
-        <v>0.1639714124331317</v>
+        <v>-0.07598629641661636</v>
       </c>
       <c r="H66">
-        <v>-0.2159398861055206</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.1302352858678521</v>
+      </c>
+      <c r="I66">
+        <v>0.1165105686532063</v>
+      </c>
+      <c r="J66">
+        <v>-0.1405815183360891</v>
+      </c>
+      <c r="K66">
+        <v>0.09295309896059534</v>
+      </c>
+      <c r="L66">
+        <v>-0.05380880961327207</v>
+      </c>
+      <c r="M66">
+        <v>-0.1087921471829291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.0840839777650244</v>
+        <v>-0.07523297699620538</v>
       </c>
       <c r="C67">
-        <v>-0.04860151528607776</v>
+        <v>-0.05643354222838654</v>
       </c>
       <c r="D67">
-        <v>-0.007121723406016694</v>
+        <v>0.02325012288636888</v>
       </c>
       <c r="E67">
-        <v>0.006923679752452342</v>
+        <v>-0.02377695145285122</v>
       </c>
       <c r="F67">
-        <v>0.03056904746009242</v>
+        <v>0.05838944201660067</v>
       </c>
       <c r="G67">
-        <v>0.0005889095646742121</v>
+        <v>-0.08173067562810736</v>
       </c>
       <c r="H67">
-        <v>-0.0683768762542496</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.01235860134619685</v>
+      </c>
+      <c r="I67">
+        <v>0.0101870922470349</v>
+      </c>
+      <c r="J67">
+        <v>-0.006278919082895674</v>
+      </c>
+      <c r="K67">
+        <v>0.05807291790755235</v>
+      </c>
+      <c r="L67">
+        <v>0.1455856301616207</v>
+      </c>
+      <c r="M67">
+        <v>-0.03372974701358812</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.0940663223261657</v>
+        <v>-0.1248200868224492</v>
       </c>
       <c r="C68">
-        <v>0.2840583980946114</v>
+        <v>0.2706276517331777</v>
       </c>
       <c r="D68">
-        <v>-0.008058676521467776</v>
+        <v>-0.01076817006182031</v>
       </c>
       <c r="E68">
-        <v>0.02253808451355826</v>
+        <v>-5.945039576918054e-06</v>
       </c>
       <c r="F68">
-        <v>0.02492111608109525</v>
+        <v>-0.04009250534215135</v>
       </c>
       <c r="G68">
-        <v>-0.03924648216579894</v>
+        <v>-0.02862997664504273</v>
       </c>
       <c r="H68">
-        <v>0.02668984489269128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.01129538877663747</v>
+      </c>
+      <c r="I68">
+        <v>-0.03232440492142035</v>
+      </c>
+      <c r="J68">
+        <v>0.02943022193813583</v>
+      </c>
+      <c r="K68">
+        <v>-0.04494706487327807</v>
+      </c>
+      <c r="L68">
+        <v>-0.03169883560153259</v>
+      </c>
+      <c r="M68">
+        <v>-0.00599970433104153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03268640586644157</v>
+        <v>-0.04406036849524935</v>
       </c>
       <c r="C69">
-        <v>-0.02718773514653199</v>
+        <v>-0.02058916855991976</v>
       </c>
       <c r="D69">
-        <v>-0.009054543728566455</v>
+        <v>0.006357679551881947</v>
       </c>
       <c r="E69">
-        <v>0.006345588793601011</v>
+        <v>-0.001326535637789056</v>
       </c>
       <c r="F69">
-        <v>0.02895896977166775</v>
+        <v>-0.01924390921943207</v>
       </c>
       <c r="G69">
-        <v>0.03013083528347729</v>
+        <v>-0.02273884003690353</v>
       </c>
       <c r="H69">
-        <v>0.003334042785413473</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.001037637606296672</v>
+      </c>
+      <c r="I69">
+        <v>0.0004670947650610875</v>
+      </c>
+      <c r="J69">
+        <v>-0.002755993423565787</v>
+      </c>
+      <c r="K69">
+        <v>-0.01321794549716853</v>
+      </c>
+      <c r="L69">
+        <v>0.0176957911264113</v>
+      </c>
+      <c r="M69">
+        <v>0.07092608133977645</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.05082266000361982</v>
+        <v>-0.05519209480172112</v>
       </c>
       <c r="C70">
-        <v>-0.002102974487532739</v>
+        <v>-0.03465120925946857</v>
       </c>
       <c r="D70">
-        <v>-0.04225475804270679</v>
+        <v>-0.01851041251697618</v>
       </c>
       <c r="E70">
-        <v>-0.007558760231418724</v>
+        <v>-0.02642474610235638</v>
       </c>
       <c r="F70">
-        <v>-0.09418514855067028</v>
+        <v>0.01267037705696253</v>
       </c>
       <c r="G70">
-        <v>-0.04336755498537684</v>
+        <v>0.07555848882790936</v>
       </c>
       <c r="H70">
-        <v>-0.05597139882949788</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.0369558051279731</v>
+      </c>
+      <c r="I70">
+        <v>-0.02713936224439733</v>
+      </c>
+      <c r="J70">
+        <v>0.01759363320387845</v>
+      </c>
+      <c r="K70">
+        <v>-0.1853243644656072</v>
+      </c>
+      <c r="L70">
+        <v>0.2295211570804301</v>
+      </c>
+      <c r="M70">
+        <v>0.02326556553621075</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.09988322654874136</v>
+        <v>-0.1394764584268292</v>
       </c>
       <c r="C71">
-        <v>0.2788451318112372</v>
+        <v>0.2789691512168159</v>
       </c>
       <c r="D71">
-        <v>-0.04147081276500497</v>
+        <v>-0.01467832390992414</v>
       </c>
       <c r="E71">
-        <v>0.01256748650884891</v>
+        <v>-0.01682937760978665</v>
       </c>
       <c r="F71">
-        <v>-0.004101453382357101</v>
+        <v>-0.03982758249104964</v>
       </c>
       <c r="G71">
-        <v>-0.01424651344188891</v>
+        <v>-0.02942846289110823</v>
       </c>
       <c r="H71">
-        <v>-0.001782267031216321</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.03340311892401011</v>
+      </c>
+      <c r="I71">
+        <v>-0.01073846139199161</v>
+      </c>
+      <c r="J71">
+        <v>0.009439795681896538</v>
+      </c>
+      <c r="K71">
+        <v>-0.01954443470812967</v>
+      </c>
+      <c r="L71">
+        <v>-0.01807093278562166</v>
+      </c>
+      <c r="M71">
+        <v>0.002723713571271841</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1774746923338516</v>
+        <v>-0.1460886081977085</v>
       </c>
       <c r="C72">
-        <v>-0.02207271135046151</v>
+        <v>-0.02612837017910235</v>
       </c>
       <c r="D72">
-        <v>0.251637725722281</v>
+        <v>0.001916732604092653</v>
       </c>
       <c r="E72">
-        <v>-0.04965168901338259</v>
+        <v>0.1854697129745805</v>
       </c>
       <c r="F72">
-        <v>0.05721547557865518</v>
+        <v>-0.03414267002073896</v>
       </c>
       <c r="G72">
-        <v>0.06880938981069411</v>
+        <v>-0.0318829457165422</v>
       </c>
       <c r="H72">
-        <v>0.08340260990618655</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.02232089114898894</v>
+      </c>
+      <c r="I72">
+        <v>-0.08821879839835384</v>
+      </c>
+      <c r="J72">
+        <v>0.1076558023522879</v>
+      </c>
+      <c r="K72">
+        <v>0.07618551207760622</v>
+      </c>
+      <c r="L72">
+        <v>-0.007003672826800256</v>
+      </c>
+      <c r="M72">
+        <v>-0.01080269631832112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2904073513432144</v>
+        <v>-0.2417205605675141</v>
       </c>
       <c r="C73">
-        <v>-0.1797636673390806</v>
+        <v>-0.1531306415979275</v>
       </c>
       <c r="D73">
-        <v>-0.1000886708910425</v>
+        <v>-0.1368007906122383</v>
       </c>
       <c r="E73">
-        <v>-0.02650010603994919</v>
+        <v>-0.09432980043659495</v>
       </c>
       <c r="F73">
-        <v>-0.1959546462475252</v>
+        <v>0.434635521306012</v>
       </c>
       <c r="G73">
-        <v>0.01457632050767045</v>
+        <v>0.02175334391944533</v>
       </c>
       <c r="H73">
-        <v>0.1432893763195006</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.3456021832059573</v>
+      </c>
+      <c r="I73">
+        <v>0.06866804975755514</v>
+      </c>
+      <c r="J73">
+        <v>-0.09143484848463815</v>
+      </c>
+      <c r="K73">
+        <v>0.2668147524777256</v>
+      </c>
+      <c r="L73">
+        <v>-0.2186073559863927</v>
+      </c>
+      <c r="M73">
+        <v>-0.1109673991985744</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09407864272316729</v>
+        <v>-0.09868469940010473</v>
       </c>
       <c r="C74">
-        <v>-0.03512205289757894</v>
+        <v>-0.07173373423527263</v>
       </c>
       <c r="D74">
-        <v>-0.003649734294803325</v>
+        <v>-0.01095475182395102</v>
       </c>
       <c r="E74">
-        <v>-0.01785718101709523</v>
+        <v>0.01291491697420626</v>
       </c>
       <c r="F74">
-        <v>0.1206150461804861</v>
+        <v>0.01423761330060868</v>
       </c>
       <c r="G74">
-        <v>-0.04916780603522445</v>
+        <v>-0.1564270828424094</v>
       </c>
       <c r="H74">
-        <v>0.07916689348340579</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.02282791386032467</v>
+      </c>
+      <c r="I74">
+        <v>0.02030960482920301</v>
+      </c>
+      <c r="J74">
+        <v>0.05299250860191997</v>
+      </c>
+      <c r="K74">
+        <v>-0.0006907859579882785</v>
+      </c>
+      <c r="L74">
+        <v>-0.008132078676000269</v>
+      </c>
+      <c r="M74">
+        <v>-0.01427732170381855</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.08974563404615918</v>
+        <v>-0.09511558841786652</v>
       </c>
       <c r="C75">
-        <v>-0.01921245792570833</v>
+        <v>-0.05095888857320664</v>
       </c>
       <c r="D75">
-        <v>-0.008201770778230359</v>
+        <v>-0.008504530413601115</v>
       </c>
       <c r="E75">
-        <v>-0.0453319851875769</v>
+        <v>0.009388467779272415</v>
       </c>
       <c r="F75">
-        <v>0.1031927459751893</v>
+        <v>0.01504706625454317</v>
       </c>
       <c r="G75">
-        <v>-0.05936144991559958</v>
+        <v>-0.09533771532016511</v>
       </c>
       <c r="H75">
-        <v>0.02622029077892329</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.1012625669067926</v>
+      </c>
+      <c r="I75">
+        <v>-0.004964627240129197</v>
+      </c>
+      <c r="J75">
+        <v>0.03888812489466811</v>
+      </c>
+      <c r="K75">
+        <v>0.01402755819048786</v>
+      </c>
+      <c r="L75">
+        <v>0.0158154971844858</v>
+      </c>
+      <c r="M75">
+        <v>0.05786876845165157</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1323726540475107</v>
+        <v>-0.08063668404818278</v>
       </c>
       <c r="C76">
-        <v>-0.02385860541959097</v>
+        <v>-0.0605012074511801</v>
       </c>
       <c r="D76">
-        <v>-0.008834469745190497</v>
+        <v>-0.003070069876630978</v>
       </c>
       <c r="E76">
-        <v>-0.02327779337422923</v>
+        <v>-0.01265051725495517</v>
       </c>
       <c r="F76">
-        <v>0.2213190413996382</v>
+        <v>0.04634854928884378</v>
       </c>
       <c r="G76">
-        <v>-0.08229632366961551</v>
+        <v>-0.1669117891410376</v>
       </c>
       <c r="H76">
-        <v>0.0934759088957836</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.1386143172640998</v>
+      </c>
+      <c r="I76">
+        <v>0.02698655988482702</v>
+      </c>
+      <c r="J76">
+        <v>0.04653157512258859</v>
+      </c>
+      <c r="K76">
+        <v>0.001226881375480183</v>
+      </c>
+      <c r="L76">
+        <v>0.0024646900260536</v>
+      </c>
+      <c r="M76">
+        <v>-0.04374414716771995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07538897582648119</v>
+        <v>-0.07040710217121651</v>
       </c>
       <c r="C77">
-        <v>-0.02507244649593113</v>
+        <v>-0.02740224110324164</v>
       </c>
       <c r="D77">
-        <v>-0.02672869120399392</v>
+        <v>-0.02131094184659505</v>
       </c>
       <c r="E77">
-        <v>0.1610981117892051</v>
+        <v>-0.04864420324387854</v>
       </c>
       <c r="F77">
-        <v>-0.03387341629720186</v>
+        <v>-0.2595136390887308</v>
       </c>
       <c r="G77">
-        <v>0.6795202859924605</v>
+        <v>0.1280175026442998</v>
       </c>
       <c r="H77">
-        <v>-0.1529891943660668</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.1838463045644367</v>
+      </c>
+      <c r="I77">
+        <v>-0.2551942665609528</v>
+      </c>
+      <c r="J77">
+        <v>-0.1282911975774993</v>
+      </c>
+      <c r="K77">
+        <v>0.4516312463830374</v>
+      </c>
+      <c r="L77">
+        <v>0.5343942510483854</v>
+      </c>
+      <c r="M77">
+        <v>-0.08945026030901797</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1524848815378137</v>
+        <v>-0.1566084679978752</v>
       </c>
       <c r="C78">
-        <v>-0.08608197998399991</v>
+        <v>-0.1093748910678573</v>
       </c>
       <c r="D78">
-        <v>-0.0275146116357572</v>
+        <v>0.1875496562962653</v>
       </c>
       <c r="E78">
-        <v>0.1994973458668163</v>
+        <v>-0.1301880356679828</v>
       </c>
       <c r="F78">
-        <v>-0.001613749760510906</v>
+        <v>-0.09083034601341441</v>
       </c>
       <c r="G78">
-        <v>0.02299204754185846</v>
+        <v>0.3825698129638073</v>
       </c>
       <c r="H78">
-        <v>-0.07733783488379482</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.6356996860303639</v>
+      </c>
+      <c r="I78">
+        <v>-0.1046271642324138</v>
+      </c>
+      <c r="J78">
+        <v>-0.2280868310531647</v>
+      </c>
+      <c r="K78">
+        <v>0.3270422224016362</v>
+      </c>
+      <c r="L78">
+        <v>-0.2475366055104962</v>
+      </c>
+      <c r="M78">
+        <v>-0.1285561448154809</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1413141281176602</v>
+        <v>-0.1344951826777882</v>
       </c>
       <c r="C79">
-        <v>-0.04820830851906891</v>
+        <v>-0.07559973582004563</v>
       </c>
       <c r="D79">
-        <v>-0.01581688547537189</v>
+        <v>-0.00362656675969249</v>
       </c>
       <c r="E79">
-        <v>-0.05623246902261117</v>
+        <v>-0.00262067435831066</v>
       </c>
       <c r="F79">
-        <v>0.1542501829312853</v>
+        <v>-0.0154088090462894</v>
       </c>
       <c r="G79">
-        <v>-0.0494565674349607</v>
+        <v>-0.1557837072005963</v>
       </c>
       <c r="H79">
-        <v>0.02817554797876161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.08525681304159342</v>
+      </c>
+      <c r="I79">
+        <v>0.02448391245137546</v>
+      </c>
+      <c r="J79">
+        <v>0.09148974423941626</v>
+      </c>
+      <c r="K79">
+        <v>0.003831797195706004</v>
+      </c>
+      <c r="L79">
+        <v>0.03637880149005056</v>
+      </c>
+      <c r="M79">
+        <v>0.02354002835392398</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.02548155098963106</v>
+        <v>-0.05664119170527978</v>
       </c>
       <c r="C80">
-        <v>-0.001014022274666681</v>
+        <v>-0.02537865552041553</v>
       </c>
       <c r="D80">
-        <v>-0.003799422327958177</v>
+        <v>-0.06871135861522792</v>
       </c>
       <c r="E80">
-        <v>-0.04175962855734833</v>
+        <v>-0.01345856414022742</v>
       </c>
       <c r="F80">
-        <v>0.003763456214788224</v>
+        <v>-0.02614884157861521</v>
       </c>
       <c r="G80">
-        <v>0.01910021063928713</v>
+        <v>0.03088714316269303</v>
       </c>
       <c r="H80">
-        <v>0.05252515989556665</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.0148871498780661</v>
+      </c>
+      <c r="I80">
+        <v>-0.02507663631652245</v>
+      </c>
+      <c r="J80">
+        <v>0.009049893019012462</v>
+      </c>
+      <c r="K80">
+        <v>-0.1456254101711797</v>
+      </c>
+      <c r="L80">
+        <v>-0.09857183938546304</v>
+      </c>
+      <c r="M80">
+        <v>0.03389155197758069</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1101557781786522</v>
+        <v>-0.120968531580885</v>
       </c>
       <c r="C81">
-        <v>-0.04302381439168977</v>
+        <v>-0.06610307950414371</v>
       </c>
       <c r="D81">
-        <v>-0.02558059185215584</v>
+        <v>-0.003853512326784462</v>
       </c>
       <c r="E81">
-        <v>-0.06637242797137329</v>
+        <v>-0.004694719422812562</v>
       </c>
       <c r="F81">
-        <v>0.1186238722193714</v>
+        <v>-0.02799077895795829</v>
       </c>
       <c r="G81">
-        <v>-0.03664889170872773</v>
+        <v>-0.1195149680098171</v>
       </c>
       <c r="H81">
-        <v>0.01051543767303398</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.07597431211107955</v>
+      </c>
+      <c r="I81">
+        <v>0.03961828058252625</v>
+      </c>
+      <c r="J81">
+        <v>0.05902666697682661</v>
+      </c>
+      <c r="K81">
+        <v>-0.003770516711418758</v>
+      </c>
+      <c r="L81">
+        <v>0.03343780631976478</v>
+      </c>
+      <c r="M81">
+        <v>0.105574732503068</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1137402797013286</v>
+        <v>-0.1236567290440155</v>
       </c>
       <c r="C82">
-        <v>-0.02696336620328388</v>
+        <v>-0.0526230639727257</v>
       </c>
       <c r="D82">
-        <v>-0.06148866577500009</v>
+        <v>-0.02675154401503215</v>
       </c>
       <c r="E82">
-        <v>-0.07988775247224221</v>
+        <v>-0.0001319371227121431</v>
       </c>
       <c r="F82">
-        <v>0.2325224002977818</v>
+        <v>-0.0005706803738546047</v>
       </c>
       <c r="G82">
-        <v>-0.06484599465714583</v>
+        <v>-0.2200512805590345</v>
       </c>
       <c r="H82">
-        <v>0.02148212015599982</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.1164573887434683</v>
+      </c>
+      <c r="I82">
+        <v>0.1091812242620226</v>
+      </c>
+      <c r="J82">
+        <v>0.04688032933902572</v>
+      </c>
+      <c r="K82">
+        <v>-0.04618381154556752</v>
+      </c>
+      <c r="L82">
+        <v>0.06518081587232356</v>
+      </c>
+      <c r="M82">
+        <v>0.03915834060117215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.06348317452123645</v>
+        <v>-0.0728294095813829</v>
       </c>
       <c r="C83">
-        <v>-0.0447627786201116</v>
+        <v>-0.07347371038863898</v>
       </c>
       <c r="D83">
-        <v>-0.02623877408651953</v>
+        <v>-0.0210560662766162</v>
       </c>
       <c r="E83">
-        <v>-9.106086600172477e-06</v>
+        <v>-0.003853226157833275</v>
       </c>
       <c r="F83">
-        <v>-0.05016022034270552</v>
+        <v>-0.01697890024858046</v>
       </c>
       <c r="G83">
-        <v>0.01939899227332149</v>
+        <v>-0.04468971396468784</v>
       </c>
       <c r="H83">
-        <v>-0.1018007362186611</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.05442579878561745</v>
+      </c>
+      <c r="I83">
+        <v>-0.02085328619566124</v>
+      </c>
+      <c r="J83">
+        <v>-0.05380376582236157</v>
+      </c>
+      <c r="K83">
+        <v>-0.07227998738346399</v>
+      </c>
+      <c r="L83">
+        <v>0.04827144344740727</v>
+      </c>
+      <c r="M83">
+        <v>-0.02648403857243537</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05147739508961776</v>
+        <v>-0.05491311535020454</v>
       </c>
       <c r="C84">
-        <v>-0.04580511035830676</v>
+        <v>0.01945820675869648</v>
       </c>
       <c r="D84">
-        <v>0.0596608668479825</v>
+        <v>-0.001952887334930297</v>
       </c>
       <c r="E84">
-        <v>0.00742605514976689</v>
+        <v>0.01903362425368587</v>
       </c>
       <c r="F84">
-        <v>0.0261779475586892</v>
+        <v>-0.01935103928530632</v>
       </c>
       <c r="G84">
-        <v>-0.1534590887499156</v>
+        <v>0.1894324528485591</v>
       </c>
       <c r="H84">
-        <v>-0.008077087753020311</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.0267885312033186</v>
+      </c>
+      <c r="I84">
+        <v>0.2639937508277055</v>
+      </c>
+      <c r="J84">
+        <v>-0.001175321861649259</v>
+      </c>
+      <c r="K84">
+        <v>-0.1841981609760833</v>
+      </c>
+      <c r="L84">
+        <v>-0.08312679239621402</v>
+      </c>
+      <c r="M84">
+        <v>-0.4739229415455634</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.09020577292145608</v>
+        <v>-0.1106221711264654</v>
       </c>
       <c r="C85">
-        <v>-0.04032560363510241</v>
+        <v>-0.05232426637815646</v>
       </c>
       <c r="D85">
-        <v>-0.05514085924836248</v>
+        <v>-0.01304730561238688</v>
       </c>
       <c r="E85">
-        <v>-0.03421036899555004</v>
+        <v>-0.03234268907990595</v>
       </c>
       <c r="F85">
-        <v>0.1859382584251361</v>
+        <v>-0.01778978128336656</v>
       </c>
       <c r="G85">
-        <v>-0.01719641157059107</v>
+        <v>-0.1638706470908331</v>
       </c>
       <c r="H85">
-        <v>0.06718549745998723</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.08406727492828592</v>
+      </c>
+      <c r="I85">
+        <v>0.01851577153393613</v>
+      </c>
+      <c r="J85">
+        <v>0.1045393587222199</v>
+      </c>
+      <c r="K85">
+        <v>0.02502639395599868</v>
+      </c>
+      <c r="L85">
+        <v>0.0339909317621966</v>
+      </c>
+      <c r="M85">
+        <v>0.04694510189658536</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.04518345518112541</v>
+        <v>-0.0742089436456583</v>
       </c>
       <c r="C86">
-        <v>-0.04302602096326437</v>
+        <v>-0.03263817590304103</v>
       </c>
       <c r="D86">
-        <v>-0.03369433592485253</v>
+        <v>0.0186133358942368</v>
       </c>
       <c r="E86">
-        <v>0.03330644374235041</v>
+        <v>-0.1229676449564392</v>
       </c>
       <c r="F86">
-        <v>-0.003833517201542781</v>
+        <v>-0.03998728452725583</v>
       </c>
       <c r="G86">
-        <v>0.07341393695596114</v>
+        <v>0.4157640893954106</v>
       </c>
       <c r="H86">
-        <v>0.08972942956406722</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.01957985341643383</v>
+      </c>
+      <c r="I86">
+        <v>0.4588515783391357</v>
+      </c>
+      <c r="J86">
+        <v>0.6124853936411861</v>
+      </c>
+      <c r="K86">
+        <v>0.06917104778571423</v>
+      </c>
+      <c r="L86">
+        <v>0.07321128397736404</v>
+      </c>
+      <c r="M86">
+        <v>-0.06333784898465851</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.08912554422102908</v>
+        <v>-0.1085214956774622</v>
       </c>
       <c r="C87">
-        <v>-0.05825009189049812</v>
+        <v>-0.07369331865537428</v>
       </c>
       <c r="D87">
-        <v>0.0006640952959031287</v>
+        <v>0.02873050492993372</v>
       </c>
       <c r="E87">
-        <v>0.06117429779471673</v>
+        <v>-0.03294125786275755</v>
       </c>
       <c r="F87">
-        <v>0.005136515902429106</v>
+        <v>-0.0985422095289268</v>
       </c>
       <c r="G87">
-        <v>0.1182224402787119</v>
+        <v>0.07882140778576151</v>
       </c>
       <c r="H87">
-        <v>-0.07605260806686678</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.09490857265831729</v>
+      </c>
+      <c r="I87">
+        <v>-0.04326705817852188</v>
+      </c>
+      <c r="J87">
+        <v>-0.04848802110844345</v>
+      </c>
+      <c r="K87">
+        <v>-0.005158672183589596</v>
+      </c>
+      <c r="L87">
+        <v>0.2104432653999776</v>
+      </c>
+      <c r="M87">
+        <v>0.05478819274297218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05664364135112181</v>
+        <v>-0.05856417497339821</v>
       </c>
       <c r="C88">
-        <v>-0.04528212793740974</v>
+        <v>-0.05520739195810409</v>
       </c>
       <c r="D88">
-        <v>-0.02475864460409601</v>
+        <v>-0.0290288337432449</v>
       </c>
       <c r="E88">
-        <v>0.008215253185810404</v>
+        <v>-0.001935941452553617</v>
       </c>
       <c r="F88">
-        <v>-0.007598109330336277</v>
+        <v>-0.03892896456628575</v>
       </c>
       <c r="G88">
-        <v>0.03140828676915866</v>
+        <v>-0.02886135893024913</v>
       </c>
       <c r="H88">
-        <v>-0.0311329882685924</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.03411296023197157</v>
+      </c>
+      <c r="I88">
+        <v>0.01925923240503777</v>
+      </c>
+      <c r="J88">
+        <v>-0.02248551192844167</v>
+      </c>
+      <c r="K88">
+        <v>-0.04719704277847844</v>
+      </c>
+      <c r="L88">
+        <v>-0.04032523320692068</v>
+      </c>
+      <c r="M88">
+        <v>0.06349021864619475</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1607553328978117</v>
+        <v>-0.2090358073367548</v>
       </c>
       <c r="C89">
-        <v>0.3354231453537432</v>
+        <v>0.3595749807098063</v>
       </c>
       <c r="D89">
-        <v>-0.07241242846723123</v>
+        <v>0.04408628635351908</v>
       </c>
       <c r="E89">
-        <v>0.09353421037014785</v>
+        <v>-0.08062185891135867</v>
       </c>
       <c r="F89">
-        <v>-0.04612847299663302</v>
+        <v>-0.00875010687318969</v>
       </c>
       <c r="G89">
-        <v>0.03738488618820932</v>
+        <v>0.02909334072805547</v>
       </c>
       <c r="H89">
-        <v>0.003992129464075677</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.01167617695964769</v>
+      </c>
+      <c r="I89">
+        <v>0.03395039398158594</v>
+      </c>
+      <c r="J89">
+        <v>-0.06689130326321803</v>
+      </c>
+      <c r="K89">
+        <v>-0.01374504708771162</v>
+      </c>
+      <c r="L89">
+        <v>-0.02348610825923972</v>
+      </c>
+      <c r="M89">
+        <v>0.08834578240452676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1220509024815106</v>
+        <v>-0.1534557447393237</v>
       </c>
       <c r="C90">
-        <v>0.278984807222144</v>
+        <v>0.2676627895897675</v>
       </c>
       <c r="D90">
-        <v>-0.01083308368658963</v>
+        <v>-0.009789257022669006</v>
       </c>
       <c r="E90">
-        <v>0.0650609968202978</v>
+        <v>-0.009938059599540023</v>
       </c>
       <c r="F90">
-        <v>-0.02864595128044938</v>
+        <v>-0.04088680825175124</v>
       </c>
       <c r="G90">
-        <v>0.1028275518437008</v>
+        <v>0.003881187908174132</v>
       </c>
       <c r="H90">
-        <v>-0.03999080242712848</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.08057850691948486</v>
+      </c>
+      <c r="I90">
+        <v>0.004467105961096497</v>
+      </c>
+      <c r="J90">
+        <v>-0.01237915051152184</v>
+      </c>
+      <c r="K90">
+        <v>0.01705465659149104</v>
+      </c>
+      <c r="L90">
+        <v>-0.02740177236491671</v>
+      </c>
+      <c r="M90">
+        <v>-0.0540557739218491</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08005407703418334</v>
+        <v>-0.0799257062879828</v>
       </c>
       <c r="C91">
-        <v>-0.02256684722141112</v>
+        <v>-0.05516697252540085</v>
       </c>
       <c r="D91">
-        <v>-0.01501534992424878</v>
+        <v>0.003054656289421855</v>
       </c>
       <c r="E91">
-        <v>0.003911536028485913</v>
+        <v>-0.009490932142555131</v>
       </c>
       <c r="F91">
-        <v>0.09524801576216285</v>
+        <v>0.003421688265666125</v>
       </c>
       <c r="G91">
-        <v>-0.07327135530768018</v>
+        <v>-0.0920274291226558</v>
       </c>
       <c r="H91">
-        <v>0.03160841157338123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.05861482149968307</v>
+      </c>
+      <c r="I91">
+        <v>0.02844711406210312</v>
+      </c>
+      <c r="J91">
+        <v>0.03347252701672579</v>
+      </c>
+      <c r="K91">
+        <v>0.01135095198240873</v>
+      </c>
+      <c r="L91">
+        <v>-0.01751196498671255</v>
+      </c>
+      <c r="M91">
+        <v>-0.01598881399253329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1350301541771629</v>
+        <v>-0.1721806380067401</v>
       </c>
       <c r="C92">
-        <v>0.3115522883839376</v>
+        <v>0.3109739199686141</v>
       </c>
       <c r="D92">
-        <v>-0.05521565401292356</v>
+        <v>0.03320462994734784</v>
       </c>
       <c r="E92">
-        <v>0.04904993427389923</v>
+        <v>-0.04687010336154223</v>
       </c>
       <c r="F92">
-        <v>-0.04319650041252032</v>
+        <v>-0.04086853001860483</v>
       </c>
       <c r="G92">
-        <v>-0.09370805812433608</v>
+        <v>-0.01905984860653392</v>
       </c>
       <c r="H92">
-        <v>0.02046817889879791</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.03662462416431931</v>
+      </c>
+      <c r="I92">
+        <v>0.02343355832340727</v>
+      </c>
+      <c r="J92">
+        <v>-0.04277694292588595</v>
+      </c>
+      <c r="K92">
+        <v>-0.03163064028165425</v>
+      </c>
+      <c r="L92">
+        <v>-0.04917558131404969</v>
+      </c>
+      <c r="M92">
+        <v>0.07145433946011127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1311424766126515</v>
+        <v>-0.1633427620000813</v>
       </c>
       <c r="C93">
-        <v>0.2604514063653335</v>
+        <v>0.2845955729651123</v>
       </c>
       <c r="D93">
-        <v>-0.03382509369082341</v>
+        <v>-0.03203935199567392</v>
       </c>
       <c r="E93">
-        <v>0.02382595565199636</v>
+        <v>-0.006806012116073075</v>
       </c>
       <c r="F93">
-        <v>-0.03349839248940145</v>
+        <v>-0.01328781182644321</v>
       </c>
       <c r="G93">
-        <v>0.02068315774708493</v>
+        <v>0.01413609721262217</v>
       </c>
       <c r="H93">
-        <v>-0.01191532048669705</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.03519477926858197</v>
+      </c>
+      <c r="I93">
+        <v>0.005316768909366307</v>
+      </c>
+      <c r="J93">
+        <v>0.02333687058379892</v>
+      </c>
+      <c r="K93">
+        <v>-0.02988948762529027</v>
+      </c>
+      <c r="L93">
+        <v>0.005852711941024792</v>
+      </c>
+      <c r="M93">
+        <v>-0.02673795414494925</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09012721744931664</v>
+        <v>-0.1123354922777201</v>
       </c>
       <c r="C94">
-        <v>-0.05568782104510315</v>
+        <v>-0.07176719452048187</v>
       </c>
       <c r="D94">
-        <v>-0.01192310312617918</v>
+        <v>0.01661522115281794</v>
       </c>
       <c r="E94">
-        <v>-0.006664387127570326</v>
+        <v>-0.01631390762275788</v>
       </c>
       <c r="F94">
-        <v>0.1522868374477174</v>
+        <v>0.01905940720567169</v>
       </c>
       <c r="G94">
-        <v>-0.09455166798781506</v>
+        <v>-0.1320421128586421</v>
       </c>
       <c r="H94">
-        <v>0.0701889333407902</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.07929440219728748</v>
+      </c>
+      <c r="I94">
+        <v>0.009925830670944161</v>
+      </c>
+      <c r="J94">
+        <v>0.0360920182871511</v>
+      </c>
+      <c r="K94">
+        <v>0.003668656366132168</v>
+      </c>
+      <c r="L94">
+        <v>-0.04972692669405247</v>
+      </c>
+      <c r="M94">
+        <v>0.005418015931520292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.09892259240893941</v>
+        <v>-0.1135807202074566</v>
       </c>
       <c r="C95">
-        <v>-0.06819334548581223</v>
+        <v>-0.072175113750334</v>
       </c>
       <c r="D95">
-        <v>-0.0669305322663386</v>
+        <v>0.0238340304892879</v>
       </c>
       <c r="E95">
-        <v>0.04165922139472761</v>
+        <v>-0.07213713109111559</v>
       </c>
       <c r="F95">
-        <v>-0.06265167587938825</v>
+        <v>-0.05425332482281228</v>
       </c>
       <c r="G95">
-        <v>0.009944666905911415</v>
+        <v>0.2494036814588835</v>
       </c>
       <c r="H95">
-        <v>-0.0189119211649406</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.09711879175481461</v>
+      </c>
+      <c r="I95">
+        <v>0.02374677389385069</v>
+      </c>
+      <c r="J95">
+        <v>0.009753233392118706</v>
+      </c>
+      <c r="K95">
+        <v>-0.09678943547750236</v>
+      </c>
+      <c r="L95">
+        <v>-0.005476191005981059</v>
+      </c>
+      <c r="M95">
+        <v>0.5176515207392803</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.0007097081281751083</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0002076371819020189</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.001078624168581036</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.001249410570691338</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.000911552537777774</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.002720876979590961</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.001942888186499184</v>
+      </c>
+      <c r="I96">
+        <v>-0.0008425920054860098</v>
+      </c>
+      <c r="J96">
+        <v>0.00194765365420308</v>
+      </c>
+      <c r="K96">
+        <v>-0.0005794420109878781</v>
+      </c>
+      <c r="L96">
+        <v>-0.001049278055011552</v>
+      </c>
+      <c r="M96">
+        <v>-0.006729564855496613</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2337774398146394</v>
+        <v>-0.1602130670247157</v>
       </c>
       <c r="C97">
-        <v>0.03011616527692259</v>
+        <v>-0.004635443222576241</v>
       </c>
       <c r="D97">
-        <v>0.8903403958499192</v>
+        <v>0.09005918302614746</v>
       </c>
       <c r="E97">
-        <v>-0.1132947516709904</v>
+        <v>0.9249986756754843</v>
       </c>
       <c r="F97">
-        <v>-0.1104307189538692</v>
+        <v>-0.01488878077687112</v>
       </c>
       <c r="G97">
-        <v>0.04881278227973108</v>
+        <v>0.1484432443765808</v>
       </c>
       <c r="H97">
-        <v>-0.02266210575603415</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.01327484860597183</v>
+      </c>
+      <c r="I97">
+        <v>0.07442036720166985</v>
+      </c>
+      <c r="J97">
+        <v>-0.003859915695318185</v>
+      </c>
+      <c r="K97">
+        <v>0.05234362254572193</v>
+      </c>
+      <c r="L97">
+        <v>0.0110416277431892</v>
+      </c>
+      <c r="M97">
+        <v>0.03115974032721374</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2942627813150058</v>
+        <v>-0.255698111483736</v>
       </c>
       <c r="C98">
-        <v>-0.1140890364328764</v>
+        <v>-0.1098812273453308</v>
       </c>
       <c r="D98">
-        <v>-0.1347984039070131</v>
+        <v>0.01473336096471531</v>
       </c>
       <c r="E98">
-        <v>-0.2550675795248</v>
+        <v>-0.01827797147574142</v>
       </c>
       <c r="F98">
-        <v>-0.4913915438230189</v>
+        <v>0.4873721944118138</v>
       </c>
       <c r="G98">
-        <v>-0.3641116992349052</v>
+        <v>0.2127745930481849</v>
       </c>
       <c r="H98">
-        <v>-0.3481687715730649</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.1364340734201338</v>
+      </c>
+      <c r="I98">
+        <v>-0.02441216122951007</v>
+      </c>
+      <c r="J98">
+        <v>-0.3309228866182256</v>
+      </c>
+      <c r="K98">
+        <v>-0.3883927323435282</v>
+      </c>
+      <c r="L98">
+        <v>0.361769519749788</v>
+      </c>
+      <c r="M98">
+        <v>-0.073428332088499</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.05952122273245089</v>
+        <v>-0.06680544636192144</v>
       </c>
       <c r="C99">
-        <v>-0.05204017719403158</v>
+        <v>-0.05501222287522851</v>
       </c>
       <c r="D99">
-        <v>-0.03290298494928105</v>
+        <v>0.006371780702905324</v>
       </c>
       <c r="E99">
-        <v>-0.01369950622337689</v>
+        <v>-0.03289730541862435</v>
       </c>
       <c r="F99">
-        <v>-0.02341375242753665</v>
+        <v>0.0183218833120451</v>
       </c>
       <c r="G99">
-        <v>-0.007299887100140073</v>
+        <v>-0.02018751443411015</v>
       </c>
       <c r="H99">
-        <v>-0.085887979440034</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.01452719434554554</v>
+      </c>
+      <c r="I99">
+        <v>0.01355201907203362</v>
+      </c>
+      <c r="J99">
+        <v>-0.02855958493929702</v>
+      </c>
+      <c r="K99">
+        <v>0.05092430340611232</v>
+      </c>
+      <c r="L99">
+        <v>0.03289539211545852</v>
+      </c>
+      <c r="M99">
+        <v>0.06487164660425988</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-9.929621883246313e-05</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.002566467989229472</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.0004174177905884433</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.001290234993154565</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.001148816189448139</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.002426317019629972</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.01028123971160813</v>
+      </c>
+      <c r="I100">
+        <v>-0.004548346465987419</v>
+      </c>
+      <c r="J100">
+        <v>-0.003760978660580106</v>
+      </c>
+      <c r="K100">
+        <v>0.0008677408664145123</v>
+      </c>
+      <c r="L100">
+        <v>0.001745264704251164</v>
+      </c>
+      <c r="M100">
+        <v>-0.001034314296359802</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05310140561251916</v>
+        <v>-0.04033929434940537</v>
       </c>
       <c r="C101">
-        <v>-0.02099163202610705</v>
+        <v>-0.02968417028074617</v>
       </c>
       <c r="D101">
-        <v>-0.01296986763946877</v>
+        <v>-0.003173771096811418</v>
       </c>
       <c r="E101">
-        <v>0.02738096126292312</v>
+        <v>-0.02160010417793843</v>
       </c>
       <c r="F101">
-        <v>0.004282586317015476</v>
+        <v>-0.05504423154618792</v>
       </c>
       <c r="G101">
-        <v>-0.01020291029168403</v>
+        <v>-0.01068595666243609</v>
       </c>
       <c r="H101">
-        <v>0.004176118354044397</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.01948253516244841</v>
+      </c>
+      <c r="I101">
+        <v>-0.002311442986151197</v>
+      </c>
+      <c r="J101">
+        <v>0.01620255307058029</v>
+      </c>
+      <c r="K101">
+        <v>-0.07900457692959199</v>
+      </c>
+      <c r="L101">
+        <v>0.008256893884608402</v>
+      </c>
+      <c r="M101">
+        <v>0.01649280470414734</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
